--- a/Results/MultivModels_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#FC+Dem.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#FC+Dem.xlsx
@@ -444,34 +444,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.1512956174797819</v>
+        <v>-0.1237814924718908</v>
       </c>
       <c r="C2">
-        <v>0.1984504958041651</v>
+        <v>0.09039337125423545</v>
       </c>
       <c r="D2">
-        <v>-0.1446174161672497</v>
+        <v>-0.09112870592491452</v>
       </c>
       <c r="E2">
-        <v>-0.2703156253119551</v>
+        <v>-0.2504405845198844</v>
       </c>
       <c r="F2">
-        <v>-0.1499449094708105</v>
+        <v>-0.1037604570426918</v>
       </c>
       <c r="G2">
-        <v>-0.1805958246620215</v>
+        <v>-0.1436537932923554</v>
       </c>
       <c r="H2">
-        <v>-0.06922713302900993</v>
+        <v>-0.07416544489139498</v>
       </c>
       <c r="I2">
-        <v>0.1733477918279766</v>
+        <v>0.2099872354011596</v>
       </c>
       <c r="J2">
-        <v>-0.03611158971221214</v>
+        <v>-0.05982345407676275</v>
       </c>
       <c r="K2">
-        <v>-0.1077216482553032</v>
+        <v>-0.12297582633894</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -479,34 +479,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.1220270679136388</v>
+        <v>-0.3506783155453412</v>
       </c>
       <c r="C3">
-        <v>0.1633825967236753</v>
+        <v>0.263198438335029</v>
       </c>
       <c r="D3">
-        <v>-0.07851790011446938</v>
+        <v>-0.1413439124629842</v>
       </c>
       <c r="E3">
-        <v>-0.297882950120533</v>
+        <v>-0.7332407635276762</v>
       </c>
       <c r="F3">
-        <v>-0.1455436625986304</v>
+        <v>-0.4791897962321531</v>
       </c>
       <c r="G3">
-        <v>-0.134996254212833</v>
+        <v>-0.2010255082378487</v>
       </c>
       <c r="H3">
-        <v>-0.06700380330562947</v>
+        <v>0.04385246177816881</v>
       </c>
       <c r="I3">
-        <v>0.1532742155607721</v>
+        <v>0.46286272459852</v>
       </c>
       <c r="J3">
-        <v>-0.04175326129884303</v>
+        <v>-0.2002211311316626</v>
       </c>
       <c r="K3">
-        <v>-0.1275943798414585</v>
+        <v>-0.398235312303265</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -514,34 +514,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.002541482483526551</v>
+        <v>-0.1250356024506468</v>
       </c>
       <c r="C4">
-        <v>0.002395400152339672</v>
+        <v>0.1127569449685136</v>
       </c>
       <c r="D4">
-        <v>-0.002175744675187919</v>
+        <v>-0.09942245964442606</v>
       </c>
       <c r="E4">
-        <v>-0.005155157011645273</v>
+        <v>-0.260045449146336</v>
       </c>
       <c r="F4">
-        <v>-0.003220443544790089</v>
+        <v>-0.1371347382904824</v>
       </c>
       <c r="G4">
-        <v>-0.003137201301610689</v>
+        <v>-0.1311470319871946</v>
       </c>
       <c r="H4">
-        <v>-0.00210171335447757</v>
+        <v>-0.05611554202491584</v>
       </c>
       <c r="I4">
-        <v>0.00436383646545906</v>
+        <v>0.2024156040598852</v>
       </c>
       <c r="J4">
-        <v>-0.0005287382272504844</v>
+        <v>-0.06987216237530898</v>
       </c>
       <c r="K4">
-        <v>-0.0008502074435907407</v>
+        <v>-0.07405402988540553</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -549,34 +549,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.204832931719461</v>
+        <v>-0.1395357682866279</v>
       </c>
       <c r="C5">
-        <v>0.3057114967590488</v>
+        <v>0.09649381141648722</v>
       </c>
       <c r="D5">
-        <v>-0.2843669320617194</v>
+        <v>-0.1617619990378871</v>
       </c>
       <c r="E5">
-        <v>-0.4217445692431359</v>
+        <v>-0.2362080720512606</v>
       </c>
       <c r="F5">
-        <v>-0.3161530835113635</v>
+        <v>-0.1438257205739297</v>
       </c>
       <c r="G5">
-        <v>-0.1855014592606236</v>
+        <v>-0.1284477862103879</v>
       </c>
       <c r="H5">
-        <v>-0.1757212644142973</v>
+        <v>-0.07192337158160073</v>
       </c>
       <c r="I5">
-        <v>0.2970893851226393</v>
+        <v>0.2262426246518105</v>
       </c>
       <c r="J5">
-        <v>-0.1704277529664799</v>
+        <v>-0.05794658962656644</v>
       </c>
       <c r="K5">
-        <v>-0.2637641299815189</v>
+        <v>-0.1063538767661833</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -584,34 +584,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.02474484835029236</v>
+        <v>-0.002443965718694394</v>
       </c>
       <c r="C6">
-        <v>0.02904147846422348</v>
+        <v>0.002108211952357557</v>
       </c>
       <c r="D6">
-        <v>-0.005219403663483207</v>
+        <v>-0.001640294884486509</v>
       </c>
       <c r="E6">
-        <v>-0.04560432925007304</v>
+        <v>-0.004910868326643856</v>
       </c>
       <c r="F6">
-        <v>-0.03403162555237419</v>
+        <v>-0.002301571674986947</v>
       </c>
       <c r="G6">
-        <v>-0.0291755898860422</v>
+        <v>-0.003764696670514339</v>
       </c>
       <c r="H6">
-        <v>-0.0167293411373694</v>
+        <v>-0.002298387863784301</v>
       </c>
       <c r="I6">
-        <v>0.0433183815772332</v>
+        <v>0.003958246526919122</v>
       </c>
       <c r="J6">
-        <v>-0.004917420106779503</v>
+        <v>-0.001128786692874845</v>
       </c>
       <c r="K6">
-        <v>-0.005731444363586568</v>
+        <v>-0.0008721253787669223</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -619,34 +619,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.01930570543115471</v>
+        <v>-0.2377782232826375</v>
       </c>
       <c r="C7">
-        <v>0.02488126063009555</v>
+        <v>0.2667311543024433</v>
       </c>
       <c r="D7">
-        <v>-0.007473048286670691</v>
+        <v>-0.2857211822830141</v>
       </c>
       <c r="E7">
-        <v>-0.04461060104100419</v>
+        <v>-0.4375010173513356</v>
       </c>
       <c r="F7">
-        <v>-0.02747985950218106</v>
+        <v>-0.3241418919203531</v>
       </c>
       <c r="G7">
-        <v>-0.0317784855200292</v>
+        <v>-0.125167323551129</v>
       </c>
       <c r="H7">
-        <v>-0.01472781875701796</v>
+        <v>-0.03768513645884031</v>
       </c>
       <c r="I7">
-        <v>0.03052234387924047</v>
+        <v>0.426652681576452</v>
       </c>
       <c r="J7">
-        <v>-0.00484576741982125</v>
+        <v>-0.1433031450317493</v>
       </c>
       <c r="K7">
-        <v>-0.01020044740652134</v>
+        <v>-0.2303344540608867</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -654,34 +654,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.2232508928670305</v>
+        <v>-0.3649564809422141</v>
       </c>
       <c r="C8">
-        <v>0.2618931654387082</v>
+        <v>0.4172683051030903</v>
       </c>
       <c r="D8">
-        <v>-0.2018815826442194</v>
+        <v>-0.3401426308768477</v>
       </c>
       <c r="E8">
-        <v>-0.4049050787238435</v>
+        <v>-0.4824136157806163</v>
       </c>
       <c r="F8">
-        <v>-0.3580487838289069</v>
+        <v>-0.3667508287549435</v>
       </c>
       <c r="G8">
-        <v>-0.1756929553212092</v>
+        <v>-0.2715368919378708</v>
       </c>
       <c r="H8">
-        <v>-0.1008137097761469</v>
+        <v>-0.1703506296557925</v>
       </c>
       <c r="I8">
-        <v>0.4494921987678039</v>
+        <v>0.6723654105681074</v>
       </c>
       <c r="J8">
-        <v>-0.1272971424877525</v>
+        <v>-0.2731645977346155</v>
       </c>
       <c r="K8">
-        <v>-0.1632241600872811</v>
+        <v>-0.1884503458658591</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -689,34 +689,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.2027372875595889</v>
+        <v>-0.3629312893986081</v>
       </c>
       <c r="C9">
-        <v>0.1883168957392221</v>
+        <v>0.3190019579025733</v>
       </c>
       <c r="D9">
-        <v>-0.2032457904645046</v>
+        <v>-0.207312418210067</v>
       </c>
       <c r="E9">
-        <v>-0.4769885711517139</v>
+        <v>-0.6394076792097424</v>
       </c>
       <c r="F9">
-        <v>-0.3426812814543811</v>
+        <v>-0.3233560108486307</v>
       </c>
       <c r="G9">
-        <v>-0.1805977610895865</v>
+        <v>-0.3565153698396558</v>
       </c>
       <c r="H9">
-        <v>-0.05372504018906191</v>
+        <v>-0.1901345862928078</v>
       </c>
       <c r="I9">
-        <v>0.3507395969156925</v>
+        <v>0.4682903603141472</v>
       </c>
       <c r="J9">
-        <v>-0.1178318952097223</v>
+        <v>-0.1814642967015695</v>
       </c>
       <c r="K9">
-        <v>-0.1696967942756762</v>
+        <v>-0.3673314790869301</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -724,34 +724,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.1977308780455361</v>
+        <v>-0.2899780182096157</v>
       </c>
       <c r="C10">
-        <v>0.1940353511384772</v>
+        <v>0.2135253251514364</v>
       </c>
       <c r="D10">
-        <v>-0.1186965270728906</v>
+        <v>-0.136302183823768</v>
       </c>
       <c r="E10">
-        <v>-0.5025042553545275</v>
+        <v>-0.5029039330358535</v>
       </c>
       <c r="F10">
-        <v>-0.2132627857278732</v>
+        <v>-0.2891494538350071</v>
       </c>
       <c r="G10">
-        <v>-0.1992038515013937</v>
+        <v>-0.3133904100569392</v>
       </c>
       <c r="H10">
-        <v>-0.1295046883031188</v>
+        <v>-0.1614111789705318</v>
       </c>
       <c r="I10">
-        <v>0.4054692286736835</v>
+        <v>0.4323236282459426</v>
       </c>
       <c r="J10">
-        <v>-0.1347493380446694</v>
+        <v>-0.1211194312296152</v>
       </c>
       <c r="K10">
-        <v>-0.1556855185861698</v>
+        <v>-0.2203689053276247</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -759,34 +759,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.002363702902076209</v>
+        <v>-0.1416478141947643</v>
       </c>
       <c r="C11">
-        <v>0.001259139647898806</v>
+        <v>0.1373898830188152</v>
       </c>
       <c r="D11">
-        <v>-0.002087678778056891</v>
+        <v>-0.09440277854776348</v>
       </c>
       <c r="E11">
-        <v>-0.004705101212135443</v>
+        <v>-0.2446820788793458</v>
       </c>
       <c r="F11">
-        <v>-0.003670061863361081</v>
+        <v>-0.1346930010222301</v>
       </c>
       <c r="G11">
-        <v>-0.003055418953120761</v>
+        <v>-0.1544856097839765</v>
       </c>
       <c r="H11">
-        <v>-0.001592376526377795</v>
+        <v>-0.1140648598506852</v>
       </c>
       <c r="I11">
-        <v>0.004401087029829631</v>
+        <v>0.2037076295039777</v>
       </c>
       <c r="J11">
-        <v>-0.0005276223887443811</v>
+        <v>-0.04744301736745635</v>
       </c>
       <c r="K11">
-        <v>-0.001831384492311771</v>
+        <v>-0.07014887656216939</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -794,34 +794,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.1302774983255982</v>
+        <v>-0.003024842737202411</v>
       </c>
       <c r="C12">
-        <v>0.08999872285416309</v>
+        <v>0.001988381378500569</v>
       </c>
       <c r="D12">
-        <v>-0.1207307300646348</v>
+        <v>-0.002494517836264559</v>
       </c>
       <c r="E12">
-        <v>-0.2675264953684817</v>
+        <v>-0.005055799768116532</v>
       </c>
       <c r="F12">
-        <v>-0.1396273903901543</v>
+        <v>-0.002968058619630187</v>
       </c>
       <c r="G12">
-        <v>-0.1480269548403547</v>
+        <v>-0.003847979565243608</v>
       </c>
       <c r="H12">
-        <v>-0.08364385179416503</v>
+        <v>-0.002871282180613036</v>
       </c>
       <c r="I12">
-        <v>0.2040706815635479</v>
+        <v>0.004661716339004543</v>
       </c>
       <c r="J12">
-        <v>-0.04068513663886585</v>
+        <v>-0.001127533469550311</v>
       </c>
       <c r="K12">
-        <v>-0.1492086846945165</v>
+        <v>-0.0007334611762388678</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,34 +829,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.002535863372262086</v>
+        <v>-0.2627409294871521</v>
       </c>
       <c r="C13">
-        <v>0.001853431144264487</v>
+        <v>0.2115887287525497</v>
       </c>
       <c r="D13">
-        <v>-0.002788805353179463</v>
+        <v>-0.1771286926448401</v>
       </c>
       <c r="E13">
-        <v>-0.005053534220988086</v>
+        <v>-0.4952842162975816</v>
       </c>
       <c r="F13">
-        <v>-0.002889749333054772</v>
+        <v>-0.3108394739528678</v>
       </c>
       <c r="G13">
-        <v>-0.00385723728316904</v>
+        <v>-0.1481698453358317</v>
       </c>
       <c r="H13">
-        <v>-0.002505513781055472</v>
+        <v>-0.1354487176121047</v>
       </c>
       <c r="I13">
-        <v>0.003244121891545482</v>
+        <v>0.4085557283447885</v>
       </c>
       <c r="J13">
-        <v>-0.0005253490052752205</v>
+        <v>-0.1443884035906096</v>
       </c>
       <c r="K13">
-        <v>-0.002117920734308704</v>
+        <v>-0.2310836509847764</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -864,34 +864,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.002252575746793915</v>
+        <v>-0.1471854941016</v>
       </c>
       <c r="C14">
-        <v>0.002442922897194359</v>
+        <v>0.1588195017182053</v>
       </c>
       <c r="D14">
-        <v>-0.001933961065948007</v>
+        <v>-0.05544437942447639</v>
       </c>
       <c r="E14">
-        <v>-0.004733352869966115</v>
+        <v>-0.2821113472260289</v>
       </c>
       <c r="F14">
-        <v>-0.00251222415045863</v>
+        <v>-0.1667210421625026</v>
       </c>
       <c r="G14">
-        <v>-0.003322470874322598</v>
+        <v>-0.1377402521670744</v>
       </c>
       <c r="H14">
-        <v>-0.00221088506733349</v>
+        <v>-0.04444783092897702</v>
       </c>
       <c r="I14">
-        <v>0.003983212159762451</v>
+        <v>0.1990941140200787</v>
       </c>
       <c r="J14">
-        <v>-0.0005289381577583889</v>
+        <v>-0.0578099067997049</v>
       </c>
       <c r="K14">
-        <v>-0.001606296034277536</v>
+        <v>-0.1142415130965808</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -899,34 +899,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.2969251159731848</v>
+        <v>-0.3085134381710248</v>
       </c>
       <c r="C15">
-        <v>0.2471026959778763</v>
+        <v>0.1019258221666604</v>
       </c>
       <c r="D15">
-        <v>-0.2043820746305774</v>
+        <v>-0.1349160742706914</v>
       </c>
       <c r="E15">
-        <v>-0.6693765126187275</v>
+        <v>-0.6808054023992165</v>
       </c>
       <c r="F15">
-        <v>-0.4969726107287783</v>
+        <v>-0.1942170407946278</v>
       </c>
       <c r="G15">
-        <v>-0.3146138058359539</v>
+        <v>-0.3792158537527002</v>
       </c>
       <c r="H15">
-        <v>-0.03771166087420168</v>
+        <v>0.03332037176055203</v>
       </c>
       <c r="I15">
-        <v>0.5097818525546033</v>
+        <v>0.4865081062391655</v>
       </c>
       <c r="J15">
-        <v>-0.2063741361996402</v>
+        <v>-0.2422776547568053</v>
       </c>
       <c r="K15">
-        <v>-0.2301759473935102</v>
+        <v>-0.4085653963995116</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -934,34 +934,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.136212556946377</v>
+        <v>-0.1311426100329534</v>
       </c>
       <c r="C16">
-        <v>0.1230001094539087</v>
+        <v>0.1009439660804771</v>
       </c>
       <c r="D16">
-        <v>-0.0778555229213457</v>
+        <v>-0.0809352883630671</v>
       </c>
       <c r="E16">
-        <v>-0.2701917025634039</v>
+        <v>-0.2407911443352069</v>
       </c>
       <c r="F16">
-        <v>-0.1334497970432051</v>
+        <v>-0.1385583702993909</v>
       </c>
       <c r="G16">
-        <v>-0.1748655973176685</v>
+        <v>-0.1303731551262491</v>
       </c>
       <c r="H16">
-        <v>-0.08114891427510396</v>
+        <v>-0.09259108104420642</v>
       </c>
       <c r="I16">
-        <v>0.1924577337107208</v>
+        <v>0.2336713774700445</v>
       </c>
       <c r="J16">
-        <v>-0.03327654352910064</v>
+        <v>-0.05845282672237149</v>
       </c>
       <c r="K16">
-        <v>-0.1078480696394678</v>
+        <v>-0.08434355811826486</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -969,34 +969,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.01658855574606546</v>
+        <v>-0.1325799776183149</v>
       </c>
       <c r="C17">
-        <v>0.01588928300467195</v>
+        <v>0.1481338351929282</v>
       </c>
       <c r="D17">
-        <v>-0.01349229809686285</v>
+        <v>-0.07831112962372339</v>
       </c>
       <c r="E17">
-        <v>-0.03820696839459003</v>
+        <v>-0.2353885569064932</v>
       </c>
       <c r="F17">
-        <v>-0.02679829585936098</v>
+        <v>-0.1693581190169171</v>
       </c>
       <c r="G17">
-        <v>-0.02746449466835429</v>
+        <v>-0.1365202818941848</v>
       </c>
       <c r="H17">
-        <v>-0.01810714921285504</v>
+        <v>-0.05608173409797759</v>
       </c>
       <c r="I17">
-        <v>0.03142747392188881</v>
+        <v>0.2187417030402958</v>
       </c>
       <c r="J17">
-        <v>-0.005026268047303576</v>
+        <v>-0.04885385526395777</v>
       </c>
       <c r="K17">
-        <v>-0.0158851191036608</v>
+        <v>-0.05836082312614589</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1004,34 +1004,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.00239366612703034</v>
+        <v>-0.123134360030141</v>
       </c>
       <c r="C18">
-        <v>0.001724517347118569</v>
+        <v>0.1003322694148805</v>
       </c>
       <c r="D18">
-        <v>-0.001790305174501979</v>
+        <v>-0.1097684860704388</v>
       </c>
       <c r="E18">
-        <v>-0.004910844303326954</v>
+        <v>-0.266984523557998</v>
       </c>
       <c r="F18">
-        <v>-0.003051105379625558</v>
+        <v>-0.09476430106360505</v>
       </c>
       <c r="G18">
-        <v>-0.00362434413536598</v>
+        <v>-0.1581029115567956</v>
       </c>
       <c r="H18">
-        <v>-0.002048280969875179</v>
+        <v>-0.07326506043429337</v>
       </c>
       <c r="I18">
-        <v>0.004047607675705281</v>
+        <v>0.1782409377286355</v>
       </c>
       <c r="J18">
-        <v>-0.0005286140446922887</v>
+        <v>-0.05184769253508698</v>
       </c>
       <c r="K18">
-        <v>-0.001922807573172584</v>
+        <v>-0.09397292871577966</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1039,34 +1039,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.2346878602040816</v>
+        <v>-0.403090972458432</v>
       </c>
       <c r="C19">
-        <v>0.3405330107610307</v>
+        <v>0.284121340578399</v>
       </c>
       <c r="D19">
-        <v>-0.1874823697918898</v>
+        <v>-0.3208236907369638</v>
       </c>
       <c r="E19">
-        <v>-0.8230905181983469</v>
+        <v>-0.760509805611692</v>
       </c>
       <c r="F19">
-        <v>-0.3080775848679658</v>
+        <v>-0.3017859606836598</v>
       </c>
       <c r="G19">
-        <v>-0.3562094396334243</v>
+        <v>-0.182852584708316</v>
       </c>
       <c r="H19">
-        <v>0.01220336616425401</v>
+        <v>-0.00377768872570452</v>
       </c>
       <c r="I19">
-        <v>0.3976657859847301</v>
+        <v>0.6721775812930292</v>
       </c>
       <c r="J19">
-        <v>-0.4306372118950427</v>
+        <v>-0.2412463147542414</v>
       </c>
       <c r="K19">
-        <v>-0.6230673367462538</v>
+        <v>-0.3828111032093858</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1074,34 +1074,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.1996621455055753</v>
+        <v>-0.3335279554722936</v>
       </c>
       <c r="C20">
-        <v>0.2356179008779161</v>
+        <v>0.2187843715816786</v>
       </c>
       <c r="D20">
-        <v>-0.1811793002840397</v>
+        <v>-0.1944665873008947</v>
       </c>
       <c r="E20">
-        <v>-0.57812366284175</v>
+        <v>-0.5738850415615975</v>
       </c>
       <c r="F20">
-        <v>-0.2828110619303859</v>
+        <v>-0.3977496639376973</v>
       </c>
       <c r="G20">
-        <v>-0.1502099807580288</v>
+        <v>-0.2150077118856754</v>
       </c>
       <c r="H20">
-        <v>0.00753501727562332</v>
+        <v>-0.1810600181006538</v>
       </c>
       <c r="I20">
-        <v>0.4329471675735507</v>
+        <v>0.5248653930697187</v>
       </c>
       <c r="J20">
-        <v>-0.24749618544586</v>
+        <v>-0.223351683290923</v>
       </c>
       <c r="K20">
-        <v>-0.4099775146362902</v>
+        <v>-0.4177306148144354</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1109,34 +1109,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.1219607003788769</v>
+        <v>-0.3579501768056464</v>
       </c>
       <c r="C21">
-        <v>0.06989871179247985</v>
+        <v>0.2383055889132918</v>
       </c>
       <c r="D21">
-        <v>-0.1004614010003338</v>
+        <v>-0.3253060909216889</v>
       </c>
       <c r="E21">
-        <v>-0.2363055812882603</v>
+        <v>-0.702293754380454</v>
       </c>
       <c r="F21">
-        <v>-0.1567807114020651</v>
+        <v>-0.4145215379831542</v>
       </c>
       <c r="G21">
-        <v>-0.145418560932782</v>
+        <v>-0.2472636665786972</v>
       </c>
       <c r="H21">
-        <v>-0.100306104010747</v>
+        <v>-0.1248225960796983</v>
       </c>
       <c r="I21">
-        <v>0.2220947123045268</v>
+        <v>0.3732631448879778</v>
       </c>
       <c r="J21">
-        <v>-0.03456305440164859</v>
+        <v>-0.1342770052635635</v>
       </c>
       <c r="K21">
-        <v>-0.0977987816911544</v>
+        <v>-0.5054543602582036</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1144,34 +1144,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.1030071611976712</v>
+        <v>-0.3548234777360178</v>
       </c>
       <c r="C22">
-        <v>0.1109947829233779</v>
+        <v>0.3194791441400166</v>
       </c>
       <c r="D22">
-        <v>-0.10542376154245</v>
+        <v>-0.2252777362222565</v>
       </c>
       <c r="E22">
-        <v>-0.2720952943359612</v>
+        <v>-0.6109312589612704</v>
       </c>
       <c r="F22">
-        <v>-0.1525344336300499</v>
+        <v>-0.2514214552540577</v>
       </c>
       <c r="G22">
-        <v>-0.1042573198803599</v>
+        <v>-0.2780088090768787</v>
       </c>
       <c r="H22">
-        <v>-0.02409341335632637</v>
+        <v>-0.1462746000408333</v>
       </c>
       <c r="I22">
-        <v>0.1736076073669919</v>
+        <v>0.6279008810724213</v>
       </c>
       <c r="J22">
-        <v>-0.04395671852343262</v>
+        <v>-0.23855464076138</v>
       </c>
       <c r="K22">
-        <v>-0.1163830659692064</v>
+        <v>-0.407601036315333</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1179,34 +1179,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.1999598226279459</v>
+        <v>-0.1383333427475357</v>
       </c>
       <c r="C23">
-        <v>0.1905955398325923</v>
+        <v>0.1131758927241679</v>
       </c>
       <c r="D23">
-        <v>-0.1041140480530398</v>
+        <v>-0.08451277181921386</v>
       </c>
       <c r="E23">
-        <v>-0.4441778429912239</v>
+        <v>-0.2575897532326158</v>
       </c>
       <c r="F23">
-        <v>-0.2998908251211218</v>
+        <v>-0.1353100723081665</v>
       </c>
       <c r="G23">
-        <v>-0.2502032518289605</v>
+        <v>-0.1468453187420923</v>
       </c>
       <c r="H23">
-        <v>-0.2024088323553197</v>
+        <v>-0.0825168632010011</v>
       </c>
       <c r="I23">
-        <v>0.359305301962693</v>
+        <v>0.2264696749441723</v>
       </c>
       <c r="J23">
-        <v>-0.1055735609379576</v>
+        <v>-0.05026083027897332</v>
       </c>
       <c r="K23">
-        <v>-0.2430486268420879</v>
+        <v>-0.1352976022503057</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1214,34 +1214,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.2086027497045864</v>
+        <v>-0.3635565365271837</v>
       </c>
       <c r="C24">
-        <v>0.1490861608209816</v>
+        <v>0.2282873129864479</v>
       </c>
       <c r="D24">
-        <v>-0.2382088370327423</v>
+        <v>-0.3745023688553205</v>
       </c>
       <c r="E24">
-        <v>-0.6209947892728261</v>
+        <v>-0.7739616052490466</v>
       </c>
       <c r="F24">
-        <v>-0.4274985155445214</v>
+        <v>-0.4396456570134796</v>
       </c>
       <c r="G24">
-        <v>-0.2570323868954962</v>
+        <v>-0.1072844820596394</v>
       </c>
       <c r="H24">
-        <v>-0.1112358465304009</v>
+        <v>-0.02021276429023037</v>
       </c>
       <c r="I24">
-        <v>0.5945862819966986</v>
+        <v>0.402481312687403</v>
       </c>
       <c r="J24">
-        <v>-0.4827941930570472</v>
+        <v>-0.1202841898853287</v>
       </c>
       <c r="K24">
-        <v>-0.4153343978351833</v>
+        <v>-0.3880473951807707</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1249,34 +1249,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.1179421303898842</v>
+        <v>-0.2835020312008818</v>
       </c>
       <c r="C25">
-        <v>0.1163739393936918</v>
+        <v>0.2827386092833316</v>
       </c>
       <c r="D25">
-        <v>-0.09977642058684326</v>
+        <v>-0.09875956711386216</v>
       </c>
       <c r="E25">
-        <v>-0.2842237376048209</v>
+        <v>-0.5671646220730323</v>
       </c>
       <c r="F25">
-        <v>-0.1147270614061882</v>
+        <v>-0.2536444128387323</v>
       </c>
       <c r="G25">
-        <v>-0.1425655165166316</v>
+        <v>-0.1844190841375762</v>
       </c>
       <c r="H25">
-        <v>-0.07157943256021712</v>
+        <v>-0.08631249436244909</v>
       </c>
       <c r="I25">
-        <v>0.1691471764456776</v>
+        <v>0.4767849654740021</v>
       </c>
       <c r="J25">
-        <v>-0.03397957145692747</v>
+        <v>-0.1477510566472207</v>
       </c>
       <c r="K25">
-        <v>-0.09527155010256129</v>
+        <v>-0.3633623498559458</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1284,34 +1284,34 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.2782896751753202</v>
+        <v>-0.003060129637171799</v>
       </c>
       <c r="C26">
-        <v>0.3114485870325795</v>
+        <v>0.00157765999678635</v>
       </c>
       <c r="D26">
-        <v>-0.1728506862734551</v>
+        <v>-0.002280870659102572</v>
       </c>
       <c r="E26">
-        <v>-0.6233246216926578</v>
+        <v>-0.004687235625534522</v>
       </c>
       <c r="F26">
-        <v>-0.3982722325378028</v>
+        <v>-0.002109835135818738</v>
       </c>
       <c r="G26">
-        <v>-0.1901985807897509</v>
+        <v>-0.004484418103014753</v>
       </c>
       <c r="H26">
-        <v>-0.1422391974921595</v>
+        <v>-0.003577291355251412</v>
       </c>
       <c r="I26">
-        <v>0.5764155427512173</v>
+        <v>0.004458726458863611</v>
       </c>
       <c r="J26">
-        <v>-0.3095275574327037</v>
+        <v>-0.001123150707080431</v>
       </c>
       <c r="K26">
-        <v>-0.3733896309988265</v>
+        <v>-0.001994818149305215</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1319,34 +1319,34 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.1154050514122655</v>
+        <v>-0.3541638789755251</v>
       </c>
       <c r="C27">
-        <v>0.1246374689209189</v>
+        <v>0.2713598415004834</v>
       </c>
       <c r="D27">
-        <v>-0.110670124324024</v>
+        <v>-0.3041141975229468</v>
       </c>
       <c r="E27">
-        <v>-0.2171698718218231</v>
+        <v>-0.6611147402856962</v>
       </c>
       <c r="F27">
-        <v>-0.1287612042481728</v>
+        <v>-0.3282981135944711</v>
       </c>
       <c r="G27">
-        <v>-0.1559155585243117</v>
+        <v>-0.2647676359163784</v>
       </c>
       <c r="H27">
-        <v>-0.1125544967486814</v>
+        <v>-0.119707933593495</v>
       </c>
       <c r="I27">
-        <v>0.211281475109579</v>
+        <v>0.4334747354550877</v>
       </c>
       <c r="J27">
-        <v>-0.04574954647210488</v>
+        <v>-0.1673417692074223</v>
       </c>
       <c r="K27">
-        <v>-0.08571781020725071</v>
+        <v>-0.2472699821190157</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1354,34 +1354,34 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.02083492561396976</v>
+        <v>-0.002565122677744271</v>
       </c>
       <c r="C28">
-        <v>0.0185857113908202</v>
+        <v>0.002771890634749302</v>
       </c>
       <c r="D28">
-        <v>-0.01297235041248005</v>
+        <v>-0.002353667686368825</v>
       </c>
       <c r="E28">
-        <v>-0.04962228878651191</v>
+        <v>-0.00422545433887575</v>
       </c>
       <c r="F28">
-        <v>-0.0214316542238175</v>
+        <v>-0.002896431736335809</v>
       </c>
       <c r="G28">
-        <v>-0.028030730435723</v>
+        <v>-0.003795484478643087</v>
       </c>
       <c r="H28">
-        <v>-0.01730451989541136</v>
+        <v>-0.002545639854387098</v>
       </c>
       <c r="I28">
-        <v>0.03564807415638646</v>
+        <v>0.003597367185174638</v>
       </c>
       <c r="J28">
-        <v>-0.00504629588199936</v>
+        <v>-0.001126568669934043</v>
       </c>
       <c r="K28">
-        <v>-0.01834574164687714</v>
+        <v>-0.001665543032144046</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1389,34 +1389,34 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.1886929942481946</v>
+        <v>-0.2683724902797947</v>
       </c>
       <c r="C29">
-        <v>0.2809164508170857</v>
+        <v>0.2965502901479576</v>
       </c>
       <c r="D29">
-        <v>-0.1626868186178135</v>
+        <v>-0.2118686796196508</v>
       </c>
       <c r="E29">
-        <v>-0.6261534072005189</v>
+        <v>-0.4357891588227687</v>
       </c>
       <c r="F29">
-        <v>-0.2462792929336783</v>
+        <v>-0.2403073638660701</v>
       </c>
       <c r="G29">
-        <v>-0.2234133667941103</v>
+        <v>-0.2285034939618474</v>
       </c>
       <c r="H29">
-        <v>-0.07607160341330634</v>
+        <v>-0.1173992933370558</v>
       </c>
       <c r="I29">
-        <v>0.6860644876641244</v>
+        <v>0.5076846580340973</v>
       </c>
       <c r="J29">
-        <v>-0.4731623511876875</v>
+        <v>-0.2025909701472708</v>
       </c>
       <c r="K29">
-        <v>-0.1320074313418442</v>
+        <v>-0.2728568977587075</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1424,34 +1424,34 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.1069423376640727</v>
+        <v>-0.3154752091196112</v>
       </c>
       <c r="C30">
-        <v>0.1560755938649245</v>
+        <v>0.2978505336288932</v>
       </c>
       <c r="D30">
-        <v>-0.06496004347775337</v>
+        <v>-0.1249638623213073</v>
       </c>
       <c r="E30">
-        <v>-0.2159610600514315</v>
+        <v>-0.6531678501370919</v>
       </c>
       <c r="F30">
-        <v>-0.155197416040041</v>
+        <v>-0.2945283537312675</v>
       </c>
       <c r="G30">
-        <v>-0.1367328724110493</v>
+        <v>-0.2117682617700694</v>
       </c>
       <c r="H30">
-        <v>-0.07709754274469682</v>
+        <v>-0.04458799391471159</v>
       </c>
       <c r="I30">
-        <v>0.1757329600563868</v>
+        <v>0.4888381040238184</v>
       </c>
       <c r="J30">
-        <v>-0.03255959381168202</v>
+        <v>-0.2180178997568497</v>
       </c>
       <c r="K30">
-        <v>-0.07580665768645672</v>
+        <v>-0.418857006588655</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1459,34 +1459,34 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.1324220027141625</v>
+        <v>-0.03247590036693486</v>
       </c>
       <c r="C31">
-        <v>0.1420808277188019</v>
+        <v>0.02647978315795285</v>
       </c>
       <c r="D31">
-        <v>-0.09080593312425415</v>
+        <v>-0.007890520325874936</v>
       </c>
       <c r="E31">
-        <v>-0.2540335187125002</v>
+        <v>-0.04918894803032294</v>
       </c>
       <c r="F31">
-        <v>-0.1946360793090671</v>
+        <v>-0.03430577760302848</v>
       </c>
       <c r="G31">
-        <v>-0.1370072301411085</v>
+        <v>-0.03543237635044575</v>
       </c>
       <c r="H31">
-        <v>-0.06980866286530245</v>
+        <v>-0.02713889794676756</v>
       </c>
       <c r="I31">
-        <v>0.1969716679830407</v>
+        <v>0.04591446967146839</v>
       </c>
       <c r="J31">
-        <v>-0.03133084459641196</v>
+        <v>-0.009507789088372966</v>
       </c>
       <c r="K31">
-        <v>-0.07351995322951735</v>
+        <v>-0.01468977538219102</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1494,34 +1494,34 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.2433672223622862</v>
+        <v>-0.002743120813940862</v>
       </c>
       <c r="C32">
-        <v>0.2574798506233482</v>
+        <v>0.001426701984919288</v>
       </c>
       <c r="D32">
-        <v>-0.2233130516667682</v>
+        <v>-0.001822163768236153</v>
       </c>
       <c r="E32">
-        <v>-0.6709529758776184</v>
+        <v>-0.005183397917993466</v>
       </c>
       <c r="F32">
-        <v>-0.2674326487946603</v>
+        <v>-0.002311093012904231</v>
       </c>
       <c r="G32">
-        <v>-0.1438745746734508</v>
+        <v>-0.004420768129783655</v>
       </c>
       <c r="H32">
-        <v>-0.05289799603319215</v>
+        <v>-0.002532574116127144</v>
       </c>
       <c r="I32">
-        <v>0.4287140715523272</v>
+        <v>0.00397759548130835</v>
       </c>
       <c r="J32">
-        <v>-0.2119772141106258</v>
+        <v>-0.001128718654981383</v>
       </c>
       <c r="K32">
-        <v>-0.3817201520062088</v>
+        <v>-0.001446798839634334</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1529,34 +1529,34 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.1869297379691238</v>
+        <v>-0.00286487198448026</v>
       </c>
       <c r="C33">
-        <v>0.3397208058453489</v>
+        <v>0.001989342820672801</v>
       </c>
       <c r="D33">
-        <v>-0.1818686691946516</v>
+        <v>-0.001814222527723037</v>
       </c>
       <c r="E33">
-        <v>-0.6081678836873887</v>
+        <v>-0.005326883762494719</v>
       </c>
       <c r="F33">
-        <v>-0.347730249203478</v>
+        <v>-0.003093883638567585</v>
       </c>
       <c r="G33">
-        <v>-0.1798415985460553</v>
+        <v>-0.003782692139736445</v>
       </c>
       <c r="H33">
-        <v>-0.1532362307595604</v>
+        <v>-0.001979997175399301</v>
       </c>
       <c r="I33">
-        <v>0.5920807726377074</v>
+        <v>0.004643437499437009</v>
       </c>
       <c r="J33">
-        <v>-0.4554112511986118</v>
+        <v>-0.001125915569028516</v>
       </c>
       <c r="K33">
-        <v>-0.4717009153953084</v>
+        <v>-0.0002665374023148997</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1564,34 +1564,34 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.1720386886622877</v>
+        <v>-0.002542229300032041</v>
       </c>
       <c r="C34">
-        <v>0.4037907425117038</v>
+        <v>0.002426241587754759</v>
       </c>
       <c r="D34">
-        <v>-0.2592710271215096</v>
+        <v>-0.001493884096232941</v>
       </c>
       <c r="E34">
-        <v>-0.4447002775057182</v>
+        <v>-0.004965386510600079</v>
       </c>
       <c r="F34">
-        <v>-0.2666270323104358</v>
+        <v>-0.002614176455562172</v>
       </c>
       <c r="G34">
-        <v>-0.2240014052793543</v>
+        <v>-0.003624158946414693</v>
       </c>
       <c r="H34">
-        <v>-0.08432611862328589</v>
+        <v>-0.002688135813894719</v>
       </c>
       <c r="I34">
-        <v>0.3898670770120828</v>
+        <v>0.003749142284228952</v>
       </c>
       <c r="J34">
-        <v>-0.2749399051732557</v>
+        <v>-0.001128423779066607</v>
       </c>
       <c r="K34">
-        <v>-0.395038287872332</v>
+        <v>-0.001179162613700802</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1599,34 +1599,34 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.07927657785934571</v>
+        <v>-0.4005873498554564</v>
       </c>
       <c r="C35">
-        <v>0.2472043181424458</v>
+        <v>0.5563793022236837</v>
       </c>
       <c r="D35">
-        <v>-0.1177357989280333</v>
+        <v>-0.5043840042444663</v>
       </c>
       <c r="E35">
-        <v>-0.5870976337788676</v>
+        <v>-0.6114669035596371</v>
       </c>
       <c r="F35">
-        <v>-0.2067528272054998</v>
+        <v>-0.4484148914848058</v>
       </c>
       <c r="G35">
-        <v>-0.1780041527221223</v>
+        <v>-0.5090749955672426</v>
       </c>
       <c r="H35">
-        <v>-0.02314259511462769</v>
+        <v>0.03991556754302837</v>
       </c>
       <c r="I35">
-        <v>0.549520130172851</v>
+        <v>0.4200224298958693</v>
       </c>
       <c r="J35">
-        <v>-0.5418315347801782</v>
+        <v>-0.2481405165595548</v>
       </c>
       <c r="K35">
-        <v>-0.3844560386252776</v>
+        <v>-0.5032928580576753</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1634,34 +1634,34 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.1195196981633091</v>
+        <v>-0.002895854204596925</v>
       </c>
       <c r="C36">
-        <v>0.1072784243668021</v>
+        <v>0.002513812928480531</v>
       </c>
       <c r="D36">
-        <v>-0.08022967847561541</v>
+        <v>-0.00198405696510228</v>
       </c>
       <c r="E36">
-        <v>-0.2324069013065496</v>
+        <v>-0.006184116087158011</v>
       </c>
       <c r="F36">
-        <v>-0.2058868237273541</v>
+        <v>-0.002313458812411348</v>
       </c>
       <c r="G36">
-        <v>-0.1483725608341245</v>
+        <v>-0.003865659111941679</v>
       </c>
       <c r="H36">
-        <v>-0.08462465614609338</v>
+        <v>-0.001166929789943349</v>
       </c>
       <c r="I36">
-        <v>0.19691814132645</v>
+        <v>0.003968434307044781</v>
       </c>
       <c r="J36">
-        <v>-0.0371285160213711</v>
+        <v>-0.001125798683857675</v>
       </c>
       <c r="K36">
-        <v>-0.09337322760452094</v>
+        <v>-0.0005098764312672385</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1669,34 +1669,34 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.1659572030234561</v>
+        <v>-0.1531343012648505</v>
       </c>
       <c r="C37">
-        <v>0.3353375866362946</v>
+        <v>0.1530295315619124</v>
       </c>
       <c r="D37">
-        <v>-0.1958351182228309</v>
+        <v>-0.07245899968229849</v>
       </c>
       <c r="E37">
-        <v>-0.560325527515951</v>
+        <v>-0.2878823791896619</v>
       </c>
       <c r="F37">
-        <v>-0.3901851158483362</v>
+        <v>-0.1854092785645877</v>
       </c>
       <c r="G37">
-        <v>-0.1810409304711235</v>
+        <v>-0.1372832028703974</v>
       </c>
       <c r="H37">
-        <v>-0.07661915617627997</v>
+        <v>-0.06069640832678939</v>
       </c>
       <c r="I37">
-        <v>0.4706284515784215</v>
+        <v>0.1950789588926627</v>
       </c>
       <c r="J37">
-        <v>-0.3251964794333053</v>
+        <v>-0.05336593519016185</v>
       </c>
       <c r="K37">
-        <v>-0.3619765296418688</v>
+        <v>-0.03943973714553733</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1704,34 +1704,34 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.1448476590609428</v>
+        <v>-0.3928362608375995</v>
       </c>
       <c r="C38">
-        <v>0.07493707518014822</v>
+        <v>0.1343043029342209</v>
       </c>
       <c r="D38">
-        <v>-0.09889218359196962</v>
+        <v>-0.3446440773482036</v>
       </c>
       <c r="E38">
-        <v>-0.2845887788369733</v>
+        <v>-0.7515124308550564</v>
       </c>
       <c r="F38">
-        <v>-0.1983798300859484</v>
+        <v>-0.5918708093657846</v>
       </c>
       <c r="G38">
-        <v>-0.180604443275701</v>
+        <v>-0.1099212054047687</v>
       </c>
       <c r="H38">
-        <v>-0.06341495144722908</v>
+        <v>0.1018585336992727</v>
       </c>
       <c r="I38">
-        <v>0.1955173215256015</v>
+        <v>0.5376306120069232</v>
       </c>
       <c r="J38">
-        <v>-0.03926384724180636</v>
+        <v>-0.1546074827828816</v>
       </c>
       <c r="K38">
-        <v>-0.1300485651316184</v>
+        <v>-0.3844743948264013</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1739,34 +1739,34 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.1502253630475234</v>
+        <v>-0.002869785651440304</v>
       </c>
       <c r="C39">
-        <v>0.3083228848166996</v>
+        <v>0.002317903672833387</v>
       </c>
       <c r="D39">
-        <v>-0.3150951171442931</v>
+        <v>-0.001870412694797336</v>
       </c>
       <c r="E39">
-        <v>-0.8152869939903149</v>
+        <v>-0.004493900730172867</v>
       </c>
       <c r="F39">
-        <v>-0.1846399868758531</v>
+        <v>-0.003305854717963587</v>
       </c>
       <c r="G39">
-        <v>-0.1286113889877851</v>
+        <v>-0.003594654397199947</v>
       </c>
       <c r="H39">
-        <v>0.1300034323460585</v>
+        <v>-0.00308244894531849</v>
       </c>
       <c r="I39">
-        <v>0.5414139180256896</v>
+        <v>0.004783163911906079</v>
       </c>
       <c r="J39">
-        <v>-0.5929230426176463</v>
+        <v>-0.001130399289672234</v>
       </c>
       <c r="K39">
-        <v>-0.4385565324541952</v>
+        <v>-0.0001796614953740879</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1774,34 +1774,34 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.003019273152199573</v>
+        <v>-0.124834599211191</v>
       </c>
       <c r="C40">
-        <v>0.002188186763168132</v>
+        <v>0.1218914500670375</v>
       </c>
       <c r="D40">
-        <v>-0.002470370313178435</v>
+        <v>-0.1012315104838634</v>
       </c>
       <c r="E40">
-        <v>-0.005273190940611903</v>
+        <v>-0.2778244742839186</v>
       </c>
       <c r="F40">
-        <v>-0.002507993246139694</v>
+        <v>-0.08959269431511381</v>
       </c>
       <c r="G40">
-        <v>-0.004296577824416872</v>
+        <v>-0.136904514282165</v>
       </c>
       <c r="H40">
-        <v>-0.003291071457643289</v>
+        <v>-0.04997389121068106</v>
       </c>
       <c r="I40">
-        <v>0.004558440670289586</v>
+        <v>0.1991243662683612</v>
       </c>
       <c r="J40">
-        <v>-0.0005264632547268195</v>
+        <v>-0.05682524546678257</v>
       </c>
       <c r="K40">
-        <v>-0.000804109991910135</v>
+        <v>-0.1080533687711909</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1809,34 +1809,34 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.1147994770904319</v>
+        <v>-0.1292593461990518</v>
       </c>
       <c r="C41">
-        <v>0.1231362771611695</v>
+        <v>0.121791263614276</v>
       </c>
       <c r="D41">
-        <v>-0.07686207104259858</v>
+        <v>-0.0531785336813254</v>
       </c>
       <c r="E41">
-        <v>-0.2540075650926473</v>
+        <v>-0.2622559996051504</v>
       </c>
       <c r="F41">
-        <v>-0.13629702106801</v>
+        <v>-0.1616897093001053</v>
       </c>
       <c r="G41">
-        <v>-0.1305832025416186</v>
+        <v>-0.1304878178281575</v>
       </c>
       <c r="H41">
-        <v>-0.0822813093060539</v>
+        <v>-0.07944024229177093</v>
       </c>
       <c r="I41">
-        <v>0.1943483915206393</v>
+        <v>0.1800383607137284</v>
       </c>
       <c r="J41">
-        <v>-0.03681184636833215</v>
+        <v>-0.03760745342400337</v>
       </c>
       <c r="K41">
-        <v>-0.09425972636999695</v>
+        <v>-0.08711346390228472</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1844,34 +1844,34 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.00235018598193085</v>
+        <v>-0.1221915291345476</v>
       </c>
       <c r="C42">
-        <v>0.00257965725387045</v>
+        <v>0.1030081596917783</v>
       </c>
       <c r="D42">
-        <v>-0.002032262877460881</v>
+        <v>-0.0648911023057398</v>
       </c>
       <c r="E42">
-        <v>-0.00512128290198589</v>
+        <v>-0.2264768455968892</v>
       </c>
       <c r="F42">
-        <v>-0.003534624038956726</v>
+        <v>-0.1513692210569887</v>
       </c>
       <c r="G42">
-        <v>-0.003765219644488321</v>
+        <v>-0.1540992123668032</v>
       </c>
       <c r="H42">
-        <v>-0.001118857923218988</v>
+        <v>-0.1003378148085467</v>
       </c>
       <c r="I42">
-        <v>0.003264506059286039</v>
+        <v>0.1946666398091748</v>
       </c>
       <c r="J42">
-        <v>-0.0005240093842718485</v>
+        <v>-0.05998066861315872</v>
       </c>
       <c r="K42">
-        <v>-0.0002124563258704883</v>
+        <v>-0.06689785675489272</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1879,34 +1879,34 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.3323467911739922</v>
+        <v>-0.3951323660336887</v>
       </c>
       <c r="C43">
-        <v>0.3203579143982225</v>
+        <v>0.2547150774010413</v>
       </c>
       <c r="D43">
-        <v>-0.6298300457174422</v>
+        <v>-0.1874156278041956</v>
       </c>
       <c r="E43">
-        <v>-0.9639479792909631</v>
+        <v>-0.7035794371008803</v>
       </c>
       <c r="F43">
-        <v>-0.3795393503701141</v>
+        <v>-0.1864254358305804</v>
       </c>
       <c r="G43">
-        <v>-0.1439131045398771</v>
+        <v>-0.2138192547855893</v>
       </c>
       <c r="H43">
-        <v>0.07774420369172941</v>
+        <v>-0.1109425306226736</v>
       </c>
       <c r="I43">
-        <v>0.6108760605591859</v>
+        <v>0.7714558187273221</v>
       </c>
       <c r="J43">
-        <v>-0.505139514589655</v>
+        <v>-0.2770917306046516</v>
       </c>
       <c r="K43">
-        <v>-0.4529419316044762</v>
+        <v>-0.3612460710304738</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1914,34 +1914,34 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.1172199267358276</v>
+        <v>-0.02173723808405132</v>
       </c>
       <c r="C44">
-        <v>0.1204367310152172</v>
+        <v>0.0184955942461324</v>
       </c>
       <c r="D44">
-        <v>-0.08405355742711461</v>
+        <v>-0.01583989806464732</v>
       </c>
       <c r="E44">
-        <v>-0.2578690396819404</v>
+        <v>-0.04356915841748006</v>
       </c>
       <c r="F44">
-        <v>-0.1399944033648248</v>
+        <v>-0.02172666081467257</v>
       </c>
       <c r="G44">
-        <v>-0.1306553111438423</v>
+        <v>-0.0343197183987991</v>
       </c>
       <c r="H44">
-        <v>-0.0731379041884459</v>
+        <v>-0.0213908762321557</v>
       </c>
       <c r="I44">
-        <v>0.1969322134020342</v>
+        <v>0.03401966939895666</v>
       </c>
       <c r="J44">
-        <v>-0.04042360095602218</v>
+        <v>-0.01028117048404033</v>
       </c>
       <c r="K44">
-        <v>-0.1167096702451994</v>
+        <v>-0.005937689161489381</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1949,34 +1949,34 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.127743358551716</v>
+        <v>-0.002868916732330545</v>
       </c>
       <c r="C45">
-        <v>0.1241945316510979</v>
+        <v>0.001975036605709269</v>
       </c>
       <c r="D45">
-        <v>-0.07752773654323636</v>
+        <v>-0.002827674584568005</v>
       </c>
       <c r="E45">
-        <v>-0.2676782192334095</v>
+        <v>-0.005506410633564172</v>
       </c>
       <c r="F45">
-        <v>-0.1475825543412298</v>
+        <v>-0.002361320461781497</v>
       </c>
       <c r="G45">
-        <v>-0.1523914919518488</v>
+        <v>-0.004171160661849095</v>
       </c>
       <c r="H45">
-        <v>-0.09231889670628796</v>
+        <v>-0.002247963544343378</v>
       </c>
       <c r="I45">
-        <v>0.2036198049045817</v>
+        <v>0.003739241876556234</v>
       </c>
       <c r="J45">
-        <v>-0.03404713653269949</v>
+        <v>-0.001125506114122478</v>
       </c>
       <c r="K45">
-        <v>-0.09346623180072924</v>
+        <v>-0.0009988734647342849</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1984,34 +1984,34 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.02577393511913203</v>
+        <v>-0.003113676174914275</v>
       </c>
       <c r="C46">
-        <v>0.01789771574920535</v>
+        <v>0.002414032362490871</v>
       </c>
       <c r="D46">
-        <v>-0.01733616909345733</v>
+        <v>-0.002248394218129535</v>
       </c>
       <c r="E46">
-        <v>-0.04729164945055043</v>
+        <v>-0.00584005426910197</v>
       </c>
       <c r="F46">
-        <v>-0.03077768556276305</v>
+        <v>-0.002897982229883342</v>
       </c>
       <c r="G46">
-        <v>-0.03572697184210655</v>
+        <v>-0.004294452799546475</v>
       </c>
       <c r="H46">
-        <v>-0.0198067596723203</v>
+        <v>-0.0020942393646861</v>
       </c>
       <c r="I46">
-        <v>0.04191036795422199</v>
+        <v>0.003831128709348207</v>
       </c>
       <c r="J46">
-        <v>-0.004984772140215876</v>
+        <v>-0.001124684001549324</v>
       </c>
       <c r="K46">
-        <v>-0.0116301244099364</v>
+        <v>-0.001327881041257536</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2019,34 +2019,34 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.1712379906626922</v>
+        <v>-0.1205414072416489</v>
       </c>
       <c r="C47">
-        <v>0.4813168270741333</v>
+        <v>0.1342114404654937</v>
       </c>
       <c r="D47">
-        <v>-0.2336483347554333</v>
+        <v>-0.03442878083146443</v>
       </c>
       <c r="E47">
-        <v>-0.5821026162626752</v>
+        <v>-0.2368382547209322</v>
       </c>
       <c r="F47">
-        <v>-0.261857315973197</v>
+        <v>-0.1223478982222595</v>
       </c>
       <c r="G47">
-        <v>-0.1325904452748581</v>
+        <v>-0.1384144817918924</v>
       </c>
       <c r="H47">
-        <v>-0.05952761912862882</v>
+        <v>-0.07928637490606312</v>
       </c>
       <c r="I47">
-        <v>0.5419351974204436</v>
+        <v>0.2272807755319634</v>
       </c>
       <c r="J47">
-        <v>-0.3671532176715923</v>
+        <v>-0.07034358830522369</v>
       </c>
       <c r="K47">
-        <v>-0.2206209559177577</v>
+        <v>-0.06555635167449662</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2054,34 +2054,34 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.2087501899597168</v>
+        <v>-0.1490142706690787</v>
       </c>
       <c r="C48">
-        <v>0.606984934863342</v>
+        <v>0.1076580690037742</v>
       </c>
       <c r="D48">
-        <v>-0.369458429288207</v>
+        <v>-0.1309619212307901</v>
       </c>
       <c r="E48">
-        <v>-0.4009950565300319</v>
+        <v>-0.3027187988789485</v>
       </c>
       <c r="F48">
-        <v>-0.4349861758778142</v>
+        <v>-0.1398054899371516</v>
       </c>
       <c r="G48">
-        <v>-0.3837723816108836</v>
+        <v>-0.1407639073396248</v>
       </c>
       <c r="H48">
-        <v>-0.01657357442928</v>
+        <v>-0.05559245611895444</v>
       </c>
       <c r="I48">
-        <v>0.6407470400719388</v>
+        <v>0.1843783251083615</v>
       </c>
       <c r="J48">
-        <v>-0.5244167584884246</v>
+        <v>-0.05936741690066834</v>
       </c>
       <c r="K48">
-        <v>-0.3390296699116073</v>
+        <v>-0.1127190722289879</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2089,34 +2089,34 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.1204279564998268</v>
+        <v>-0.2196517284333407</v>
       </c>
       <c r="C49">
-        <v>0.0566205154931561</v>
+        <v>0.1539496765731712</v>
       </c>
       <c r="D49">
-        <v>-0.09414360958375313</v>
+        <v>-0.1609293979812391</v>
       </c>
       <c r="E49">
-        <v>-0.2647461729456485</v>
+        <v>-0.5603444333283811</v>
       </c>
       <c r="F49">
-        <v>-0.1539725225295413</v>
+        <v>-0.250238728749232</v>
       </c>
       <c r="G49">
-        <v>-0.1820916019483002</v>
+        <v>-0.2171091411787895</v>
       </c>
       <c r="H49">
-        <v>-0.04783255695309245</v>
+        <v>-0.0843529435425542</v>
       </c>
       <c r="I49">
-        <v>0.1957319602069754</v>
+        <v>0.3316862008333394</v>
       </c>
       <c r="J49">
-        <v>-0.03197137978757666</v>
+        <v>-0.1648579695826284</v>
       </c>
       <c r="K49">
-        <v>-0.03498866980652261</v>
+        <v>-0.3829963676140048</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2124,34 +2124,34 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.2383045006041861</v>
+        <v>-0.1494101584997056</v>
       </c>
       <c r="C50">
-        <v>0.2676465808431952</v>
+        <v>0.1439321049397743</v>
       </c>
       <c r="D50">
-        <v>-0.2238969065284415</v>
+        <v>-0.07944456228454223</v>
       </c>
       <c r="E50">
-        <v>-0.6841195681825518</v>
+        <v>-0.2559557936446924</v>
       </c>
       <c r="F50">
-        <v>-0.4260201069054368</v>
+        <v>-0.1552916972900064</v>
       </c>
       <c r="G50">
-        <v>-0.223960281398958</v>
+        <v>-0.1957875245715052</v>
       </c>
       <c r="H50">
-        <v>-0.1358630094822602</v>
+        <v>-0.1091916021322494</v>
       </c>
       <c r="I50">
-        <v>0.4818853359014031</v>
+        <v>0.1696615472310602</v>
       </c>
       <c r="J50">
-        <v>-0.4154318218731786</v>
+        <v>-0.05115711970509502</v>
       </c>
       <c r="K50">
-        <v>-0.5835948620555722</v>
+        <v>-0.0596084017981736</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2159,34 +2159,34 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.09829058867129946</v>
+        <v>-0.189599133283614</v>
       </c>
       <c r="C51">
-        <v>0.07626910153531406</v>
+        <v>0.0547485103623754</v>
       </c>
       <c r="D51">
-        <v>-0.09502660725839364</v>
+        <v>-0.1914614784824635</v>
       </c>
       <c r="E51">
-        <v>-0.2333982514064155</v>
+        <v>-0.3100184247287244</v>
       </c>
       <c r="F51">
-        <v>-0.1454652298135497</v>
+        <v>-0.1218268655368006</v>
       </c>
       <c r="G51">
-        <v>-0.1534218991099634</v>
+        <v>-0.203636529183413</v>
       </c>
       <c r="H51">
-        <v>-0.05153824348007015</v>
+        <v>-0.09318547674977876</v>
       </c>
       <c r="I51">
-        <v>0.172433502417055</v>
+        <v>0.2147753144180384</v>
       </c>
       <c r="J51">
-        <v>-0.03726101798229432</v>
+        <v>-0.05646255627680931</v>
       </c>
       <c r="K51">
-        <v>-0.1332657955114252</v>
+        <v>-0.06998671243557733</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2194,34 +2194,34 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.002301300048878801</v>
+        <v>-0.1164323427711401</v>
       </c>
       <c r="C52">
-        <v>0.001457174856755494</v>
+        <v>0.08605600952092353</v>
       </c>
       <c r="D52">
-        <v>-0.002061480804048069</v>
+        <v>-0.06261832742583069</v>
       </c>
       <c r="E52">
-        <v>-0.0044194611300654</v>
+        <v>-0.2599548331318739</v>
       </c>
       <c r="F52">
-        <v>-0.003130713840809508</v>
+        <v>-0.169983259653129</v>
       </c>
       <c r="G52">
-        <v>-0.003747982115302354</v>
+        <v>-0.1531762945066517</v>
       </c>
       <c r="H52">
-        <v>-0.002713057811174003</v>
+        <v>-0.05986483360529953</v>
       </c>
       <c r="I52">
-        <v>0.003766257994552411</v>
+        <v>0.1412855291828696</v>
       </c>
       <c r="J52">
-        <v>-0.0005298672792065902</v>
+        <v>-0.06245810574598678</v>
       </c>
       <c r="K52">
-        <v>-0.001712661354806775</v>
+        <v>-0.09191456320723441</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2229,34 +2229,34 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.02985932031400852</v>
+        <v>-0.368626345119941</v>
       </c>
       <c r="C53">
-        <v>0.02728755250646338</v>
+        <v>0.2914290204339862</v>
       </c>
       <c r="D53">
-        <v>-0.01371496728457652</v>
+        <v>-0.2946670432716504</v>
       </c>
       <c r="E53">
-        <v>-0.0514988095013894</v>
+        <v>-0.6414208577524998</v>
       </c>
       <c r="F53">
-        <v>-0.02745986327588717</v>
+        <v>-0.3362611976476741</v>
       </c>
       <c r="G53">
-        <v>-0.03669189667157704</v>
+        <v>-0.2490482717540696</v>
       </c>
       <c r="H53">
-        <v>-0.01998388032993851</v>
+        <v>0.002049374083636916</v>
       </c>
       <c r="I53">
-        <v>0.04806235350019037</v>
+        <v>0.6390553076666587</v>
       </c>
       <c r="J53">
-        <v>-0.005068027375112302</v>
+        <v>-0.221246384729084</v>
       </c>
       <c r="K53">
-        <v>-0.00844192347102362</v>
+        <v>-0.4540416467039928</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2264,34 +2264,34 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.201522948594802</v>
+        <v>-0.1173962009169804</v>
       </c>
       <c r="C54">
-        <v>0.2563916149602847</v>
+        <v>0.1034827810009737</v>
       </c>
       <c r="D54">
-        <v>-0.1740982902057575</v>
+        <v>-0.08579882316716628</v>
       </c>
       <c r="E54">
-        <v>-0.4631348474749452</v>
+        <v>-0.2450592877300719</v>
       </c>
       <c r="F54">
-        <v>-0.2334277574839125</v>
+        <v>-0.09020453423147458</v>
       </c>
       <c r="G54">
-        <v>-0.2183752871079553</v>
+        <v>-0.1377616693541298</v>
       </c>
       <c r="H54">
-        <v>-0.09285355369748408</v>
+        <v>-0.02275673756269522</v>
       </c>
       <c r="I54">
-        <v>0.3430546050956504</v>
+        <v>0.2331723979824015</v>
       </c>
       <c r="J54">
-        <v>-0.08856451341256948</v>
+        <v>-0.05424406257341355</v>
       </c>
       <c r="K54">
-        <v>-0.1828510462834592</v>
+        <v>-0.05697062596530356</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2299,34 +2299,34 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.1143845554706538</v>
+        <v>-0.2615664598798804</v>
       </c>
       <c r="C55">
-        <v>0.2648466985197536</v>
+        <v>0.2253033469517131</v>
       </c>
       <c r="D55">
-        <v>-0.1777934837965673</v>
+        <v>-0.1965890828619995</v>
       </c>
       <c r="E55">
-        <v>-0.6580546933663732</v>
+        <v>-0.6031046413545819</v>
       </c>
       <c r="F55">
-        <v>-0.2464837933158388</v>
+        <v>-0.2877597140556758</v>
       </c>
       <c r="G55">
-        <v>-0.2012205505139378</v>
+        <v>-0.2136747929022223</v>
       </c>
       <c r="H55">
-        <v>-0.069301890976113</v>
+        <v>-0.03195839587789307</v>
       </c>
       <c r="I55">
-        <v>0.6512413536099053</v>
+        <v>0.365020994340001</v>
       </c>
       <c r="J55">
-        <v>-0.6683578888053123</v>
+        <v>-0.1334182799198205</v>
       </c>
       <c r="K55">
-        <v>-0.4048699671344485</v>
+        <v>-0.2414346444059075</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2334,34 +2334,34 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.002822741712350683</v>
+        <v>-0.2416016959385606</v>
       </c>
       <c r="C56">
-        <v>0.003193427866820735</v>
+        <v>0.2870092539202673</v>
       </c>
       <c r="D56">
-        <v>-0.001576197372893786</v>
+        <v>-0.2966932511149779</v>
       </c>
       <c r="E56">
-        <v>-0.006141447356657687</v>
+        <v>-0.5848962148908872</v>
       </c>
       <c r="F56">
-        <v>-0.002859145671297489</v>
+        <v>-0.234332138627116</v>
       </c>
       <c r="G56">
-        <v>-0.003038151237359857</v>
+        <v>-0.1927403530600031</v>
       </c>
       <c r="H56">
-        <v>-0.001415976096482792</v>
+        <v>-0.08265441788331587</v>
       </c>
       <c r="I56">
-        <v>0.004403472486059776</v>
+        <v>0.3107167695085112</v>
       </c>
       <c r="J56">
-        <v>-0.0005261002500271238</v>
+        <v>-0.1254342029464052</v>
       </c>
       <c r="K56">
-        <v>-0.0008770353970314877</v>
+        <v>-0.2275759960244666</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2369,34 +2369,34 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.1383907320583713</v>
+        <v>-0.3278117925028217</v>
       </c>
       <c r="C57">
-        <v>0.3272500799760632</v>
+        <v>0.508203908102985</v>
       </c>
       <c r="D57">
-        <v>-0.2089995092107907</v>
+        <v>-0.3817174031917299</v>
       </c>
       <c r="E57">
-        <v>-0.6841906144897275</v>
+        <v>-0.4063179768673068</v>
       </c>
       <c r="F57">
-        <v>-0.2182220565777707</v>
+        <v>-0.337820861395057</v>
       </c>
       <c r="G57">
-        <v>-0.200920017366859</v>
+        <v>-0.2141949116007267</v>
       </c>
       <c r="H57">
-        <v>-0.05805727461853667</v>
+        <v>-0.003493177734484825</v>
       </c>
       <c r="I57">
-        <v>0.5315787754248736</v>
+        <v>0.6848846404480914</v>
       </c>
       <c r="J57">
-        <v>-0.5455950087310923</v>
+        <v>-0.2483258066653774</v>
       </c>
       <c r="K57">
-        <v>-0.399734620438749</v>
+        <v>-0.2512069060089723</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2404,34 +2404,34 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.1283020630195336</v>
+        <v>-0.2387063037047576</v>
       </c>
       <c r="C58">
-        <v>0.2766416397702139</v>
+        <v>0.2334966996886077</v>
       </c>
       <c r="D58">
-        <v>-0.1590282113364153</v>
+        <v>-0.2303008000108277</v>
       </c>
       <c r="E58">
-        <v>-0.610520135921281</v>
+        <v>-0.5564635388466271</v>
       </c>
       <c r="F58">
-        <v>-0.3474996284649167</v>
+        <v>-0.2797906244819818</v>
       </c>
       <c r="G58">
-        <v>-0.2068017194401829</v>
+        <v>-0.09003277163858116</v>
       </c>
       <c r="H58">
-        <v>-0.09934538514865934</v>
+        <v>-0.02350588116064767</v>
       </c>
       <c r="I58">
-        <v>0.3703216762055659</v>
+        <v>0.4910813147068006</v>
       </c>
       <c r="J58">
-        <v>-0.4622052612877725</v>
+        <v>-0.1895291230275101</v>
       </c>
       <c r="K58">
-        <v>-0.4689768276244037</v>
+        <v>-0.3446391934307718</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2439,34 +2439,34 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.1002290952296729</v>
+        <v>-0.002471849784174806</v>
       </c>
       <c r="C59">
-        <v>0.143135127803581</v>
+        <v>0.001194419205066675</v>
       </c>
       <c r="D59">
-        <v>-0.1033386540672303</v>
+        <v>-0.002837127269171139</v>
       </c>
       <c r="E59">
-        <v>-0.381311019491209</v>
+        <v>-0.003944590981810705</v>
       </c>
       <c r="F59">
-        <v>-0.2332060011216576</v>
+        <v>-0.00302642176611758</v>
       </c>
       <c r="G59">
-        <v>-0.1423077524714037</v>
+        <v>-0.003588833482719751</v>
       </c>
       <c r="H59">
-        <v>-0.06393732938415363</v>
+        <v>-0.002383111134644627</v>
       </c>
       <c r="I59">
-        <v>0.3085088208135058</v>
+        <v>0.004124348590391421</v>
       </c>
       <c r="J59">
-        <v>-0.131477670678158</v>
+        <v>-0.001125267032892964</v>
       </c>
       <c r="K59">
-        <v>-0.1498096939184303</v>
+        <v>-0.001869895147027853</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2474,34 +2474,34 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.0230542762072792</v>
+        <v>-0.2435888063781115</v>
       </c>
       <c r="C60">
-        <v>0.02718447335633852</v>
+        <v>0.2606421445487924</v>
       </c>
       <c r="D60">
-        <v>-0.02353339278163143</v>
+        <v>-0.0611000465156186</v>
       </c>
       <c r="E60">
-        <v>-0.04612154534376438</v>
+        <v>-0.4557014489087685</v>
       </c>
       <c r="F60">
-        <v>-0.0273169729802129</v>
+        <v>-0.2859235982666486</v>
       </c>
       <c r="G60">
-        <v>-0.02891244471406837</v>
+        <v>-0.1717529526461184</v>
       </c>
       <c r="H60">
-        <v>-0.01028162882259608</v>
+        <v>-0.1434628785625866</v>
       </c>
       <c r="I60">
-        <v>0.03687367407381677</v>
+        <v>0.4135531347825541</v>
       </c>
       <c r="J60">
-        <v>-0.005045646623288202</v>
+        <v>-0.1146258354589144</v>
       </c>
       <c r="K60">
-        <v>-0.01522808335017001</v>
+        <v>-0.2680190088977341</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2509,34 +2509,34 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.02121651659396034</v>
+        <v>-0.1571957859368883</v>
       </c>
       <c r="C61">
-        <v>0.0245076052968917</v>
+        <v>0.09099750380475788</v>
       </c>
       <c r="D61">
-        <v>-0.009647236421727974</v>
+        <v>-0.0758324869963459</v>
       </c>
       <c r="E61">
-        <v>-0.04716163470187172</v>
+        <v>-0.2473534680631043</v>
       </c>
       <c r="F61">
-        <v>-0.02495961586773397</v>
+        <v>-0.2002091111830249</v>
       </c>
       <c r="G61">
-        <v>-0.03171857090449458</v>
+        <v>-0.1491957168133938</v>
       </c>
       <c r="H61">
-        <v>-0.01825754413825354</v>
+        <v>-0.1087400199950524</v>
       </c>
       <c r="I61">
-        <v>0.03586545422743193</v>
+        <v>0.246363874993682</v>
       </c>
       <c r="J61">
-        <v>-0.004870461378992011</v>
+        <v>-0.04882776869391068</v>
       </c>
       <c r="K61">
-        <v>-0.003549299408377119</v>
+        <v>-0.0629683499469906</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2544,34 +2544,34 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.2089545221208343</v>
+        <v>-0.3770299213735053</v>
       </c>
       <c r="C62">
-        <v>0.1653803755677277</v>
+        <v>0.3370346173825443</v>
       </c>
       <c r="D62">
-        <v>-0.1466027397321147</v>
+        <v>-0.1885537209657807</v>
       </c>
       <c r="E62">
-        <v>-0.5338874590616405</v>
+        <v>-0.6703683892474807</v>
       </c>
       <c r="F62">
-        <v>-0.324329491828788</v>
+        <v>-0.4101744392173405</v>
       </c>
       <c r="G62">
-        <v>-0.2536304044896665</v>
+        <v>-0.2071581882812506</v>
       </c>
       <c r="H62">
-        <v>-0.1127122161282538</v>
+        <v>-0.03900480568292861</v>
       </c>
       <c r="I62">
-        <v>0.4506442530083826</v>
+        <v>0.5962238387041189</v>
       </c>
       <c r="J62">
-        <v>-0.2605933713885593</v>
+        <v>-0.22761462733083</v>
       </c>
       <c r="K62">
-        <v>-0.4445982709506231</v>
+        <v>-0.3833098834578116</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2579,34 +2579,34 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.2277103335739849</v>
+        <v>-0.1508925745336033</v>
       </c>
       <c r="C63">
-        <v>0.3303243838892711</v>
+        <v>0.09352362926048446</v>
       </c>
       <c r="D63">
-        <v>-0.4202078633183235</v>
+        <v>-0.1131246077186047</v>
       </c>
       <c r="E63">
-        <v>-0.5139578310085191</v>
+        <v>-0.2428040290293109</v>
       </c>
       <c r="F63">
-        <v>-0.4063176287749465</v>
+        <v>-0.1722755650453852</v>
       </c>
       <c r="G63">
-        <v>-0.1785368362202918</v>
+        <v>-0.1421258360384447</v>
       </c>
       <c r="H63">
-        <v>-0.1280312841340609</v>
+        <v>-0.1003444081026573</v>
       </c>
       <c r="I63">
-        <v>0.5772503457294689</v>
+        <v>0.2456082474569411</v>
       </c>
       <c r="J63">
-        <v>-0.4058301973400331</v>
+        <v>-0.05573098163195396</v>
       </c>
       <c r="K63">
-        <v>-0.2486537222787084</v>
+        <v>-0.05308470205779652</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2614,34 +2614,34 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.003167881917023637</v>
+        <v>-0.02672331416822074</v>
       </c>
       <c r="C64">
-        <v>0.00249317635501747</v>
+        <v>0.01526370815841687</v>
       </c>
       <c r="D64">
-        <v>-0.002261376454005717</v>
+        <v>-0.02037827114786413</v>
       </c>
       <c r="E64">
-        <v>-0.00576576779727151</v>
+        <v>-0.04917189023872266</v>
       </c>
       <c r="F64">
-        <v>-0.003060627762453158</v>
+        <v>-0.02242746205638146</v>
       </c>
       <c r="G64">
-        <v>-0.004007148996817188</v>
+        <v>-0.03515162264499515</v>
       </c>
       <c r="H64">
-        <v>-0.002450817025718158</v>
+        <v>-0.01910528715399698</v>
       </c>
       <c r="I64">
-        <v>0.004864244276703845</v>
+        <v>0.04295316756768688</v>
       </c>
       <c r="J64">
-        <v>-0.0005265054425581219</v>
+        <v>-0.01028553933564921</v>
       </c>
       <c r="K64">
-        <v>-0.0007865986583796648</v>
+        <v>-0.007778978701762283</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2649,34 +2649,34 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.1863835150449967</v>
+        <v>-0.02364611794676233</v>
       </c>
       <c r="C65">
-        <v>0.07890111430079004</v>
+        <v>0.02168286047937208</v>
       </c>
       <c r="D65">
-        <v>-0.2384939944253261</v>
+        <v>-0.01149317534177737</v>
       </c>
       <c r="E65">
-        <v>-0.4588444670963532</v>
+        <v>-0.04240632890178588</v>
       </c>
       <c r="F65">
-        <v>-0.3432276886077792</v>
+        <v>-0.02344619743950009</v>
       </c>
       <c r="G65">
-        <v>-0.1955361993665536</v>
+        <v>-0.02893560631372281</v>
       </c>
       <c r="H65">
-        <v>-0.08178432126398609</v>
+        <v>-0.02221419013719392</v>
       </c>
       <c r="I65">
-        <v>0.3496920031853522</v>
+        <v>0.04343535103655909</v>
       </c>
       <c r="J65">
-        <v>-0.1480760477244106</v>
+        <v>-0.01035711982581646</v>
       </c>
       <c r="K65">
-        <v>-0.1849094296630367</v>
+        <v>-0.01103030842455698</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2684,34 +2684,34 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.002887335125980614</v>
+        <v>-0.2964493615195996</v>
       </c>
       <c r="C66">
-        <v>0.002560107023106481</v>
+        <v>0.247277386663362</v>
       </c>
       <c r="D66">
-        <v>-0.0009306494371867581</v>
+        <v>-0.2727440443096867</v>
       </c>
       <c r="E66">
-        <v>-0.005302190700448889</v>
+        <v>-0.6133954599761015</v>
       </c>
       <c r="F66">
-        <v>-0.003148817772465839</v>
+        <v>-0.2355351601847607</v>
       </c>
       <c r="G66">
-        <v>-0.003722857562654217</v>
+        <v>-0.200061608654786</v>
       </c>
       <c r="H66">
-        <v>-0.00289317337793718</v>
+        <v>-0.09730251917854517</v>
       </c>
       <c r="I66">
-        <v>0.004886623545883716</v>
+        <v>0.4402336588620372</v>
       </c>
       <c r="J66">
-        <v>-0.0005291651837209796</v>
+        <v>-0.168651153464786</v>
       </c>
       <c r="K66">
-        <v>-0.0005365652504215733</v>
+        <v>-0.2524859302912591</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2719,34 +2719,34 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.138363547320313</v>
+        <v>-0.307344137101072</v>
       </c>
       <c r="C67">
-        <v>0.1961462821110753</v>
+        <v>0.4181068711982605</v>
       </c>
       <c r="D67">
-        <v>-0.07592567991256577</v>
+        <v>-0.243715819289431</v>
       </c>
       <c r="E67">
-        <v>-0.3558764176354104</v>
+        <v>-0.5921032156751889</v>
       </c>
       <c r="F67">
-        <v>-0.1966335196667253</v>
+        <v>-0.2170899972562568</v>
       </c>
       <c r="G67">
-        <v>-0.1945543505974013</v>
+        <v>-0.2490603601178948</v>
       </c>
       <c r="H67">
-        <v>-0.1899698179158855</v>
+        <v>-0.1045868752984992</v>
       </c>
       <c r="I67">
-        <v>0.3614422255405133</v>
+        <v>0.3823978500025375</v>
       </c>
       <c r="J67">
-        <v>-0.1624507667061471</v>
+        <v>-0.1054578267257194</v>
       </c>
       <c r="K67">
-        <v>-0.2201622559073473</v>
+        <v>-0.1983719812142697</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2754,34 +2754,34 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.08773584592354328</v>
+        <v>-0.3527974309338007</v>
       </c>
       <c r="C68">
-        <v>0.1208487333888275</v>
+        <v>0.4450385599875574</v>
       </c>
       <c r="D68">
-        <v>-0.1139112178634393</v>
+        <v>-0.3672685934416101</v>
       </c>
       <c r="E68">
-        <v>-0.2177797377008154</v>
+        <v>-0.3487776218316489</v>
       </c>
       <c r="F68">
-        <v>-0.1073203553800565</v>
+        <v>-0.3335751049010111</v>
       </c>
       <c r="G68">
-        <v>-0.1017185210853349</v>
+        <v>-0.2803409856467909</v>
       </c>
       <c r="H68">
-        <v>-0.05699842829721177</v>
+        <v>-0.1441645571784686</v>
       </c>
       <c r="I68">
-        <v>0.2083774476559629</v>
+        <v>0.6971105474823798</v>
       </c>
       <c r="J68">
-        <v>-0.04903846506705794</v>
+        <v>-0.3022412867506793</v>
       </c>
       <c r="K68">
-        <v>-0.08170888376584784</v>
+        <v>-0.4308171924397705</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2789,34 +2789,34 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.1733095225639193</v>
+        <v>-0.1566584743213113</v>
       </c>
       <c r="C69">
-        <v>0.2002329536903076</v>
+        <v>0.1217831122360062</v>
       </c>
       <c r="D69">
-        <v>-0.2827813593719362</v>
+        <v>-0.08174764038701338</v>
       </c>
       <c r="E69">
-        <v>-0.6180720197501602</v>
+        <v>-0.2665168455059413</v>
       </c>
       <c r="F69">
-        <v>-0.426801224865716</v>
+        <v>-0.1374438136487149</v>
       </c>
       <c r="G69">
-        <v>-0.1565267848011102</v>
+        <v>-0.1514841192495997</v>
       </c>
       <c r="H69">
-        <v>-0.05648486761899316</v>
+        <v>-0.08293571582518437</v>
       </c>
       <c r="I69">
-        <v>0.4995800654793252</v>
+        <v>0.2650647741389706</v>
       </c>
       <c r="J69">
-        <v>-0.3285509713945348</v>
+        <v>-0.05987334485187631</v>
       </c>
       <c r="K69">
-        <v>-0.3179887121965784</v>
+        <v>-0.07262331791051564</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2824,34 +2824,34 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.002765096727107744</v>
+        <v>-0.002700534888454614</v>
       </c>
       <c r="C70">
-        <v>0.002636899425356762</v>
+        <v>0.002746895698570781</v>
       </c>
       <c r="D70">
-        <v>-0.002286030679089023</v>
+        <v>-0.001041149915156561</v>
       </c>
       <c r="E70">
-        <v>-0.005666011248785171</v>
+        <v>-0.005018231523764925</v>
       </c>
       <c r="F70">
-        <v>-0.002798231531541792</v>
+        <v>-0.002837098893814857</v>
       </c>
       <c r="G70">
-        <v>-0.003491800734236864</v>
+        <v>-0.003377634065584231</v>
       </c>
       <c r="H70">
-        <v>-0.001751982066875707</v>
+        <v>-0.002047648151963245</v>
       </c>
       <c r="I70">
-        <v>0.004358608703168611</v>
+        <v>0.004423841468602877</v>
       </c>
       <c r="J70">
-        <v>-0.000525294202237421</v>
+        <v>-0.001124090064482962</v>
       </c>
       <c r="K70">
-        <v>-0.001321249555484544</v>
+        <v>-0.001774339586547665</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2859,34 +2859,34 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.2389549158188217</v>
+        <v>-0.00243859451021616</v>
       </c>
       <c r="C71">
-        <v>0.2007610072749025</v>
+        <v>0.002813413654186176</v>
       </c>
       <c r="D71">
-        <v>-0.2025744020766449</v>
+        <v>-0.001575149523045251</v>
       </c>
       <c r="E71">
-        <v>-0.7734429947144775</v>
+        <v>-0.005320836245324842</v>
       </c>
       <c r="F71">
-        <v>-0.271608810019453</v>
+        <v>-0.002172339974778079</v>
       </c>
       <c r="G71">
-        <v>-0.37456306826347</v>
+        <v>-0.003303483034852216</v>
       </c>
       <c r="H71">
-        <v>-0.0904289475989138</v>
+        <v>-0.001600855725718614</v>
       </c>
       <c r="I71">
-        <v>0.3769128336340529</v>
+        <v>0.003710143263421133</v>
       </c>
       <c r="J71">
-        <v>-0.3701156767508885</v>
+        <v>-0.001127358152209758</v>
       </c>
       <c r="K71">
-        <v>-0.3826321855785798</v>
+        <v>-0.001284489852552864</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2894,34 +2894,34 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.1630603650466813</v>
+        <v>-0.1250930426328409</v>
       </c>
       <c r="C72">
-        <v>0.08750231387433161</v>
+        <v>0.1612074193901777</v>
       </c>
       <c r="D72">
-        <v>-0.07345317905276653</v>
+        <v>-0.07291890303224068</v>
       </c>
       <c r="E72">
-        <v>-0.6158990034611944</v>
+        <v>-0.232596765694496</v>
       </c>
       <c r="F72">
-        <v>-0.2728449051759125</v>
+        <v>-0.1019269281268738</v>
       </c>
       <c r="G72">
-        <v>-0.3215597831354665</v>
+        <v>-0.1508883708587864</v>
       </c>
       <c r="H72">
-        <v>-0.1307629383897684</v>
+        <v>-0.08629726689419563</v>
       </c>
       <c r="I72">
-        <v>0.3910082486846801</v>
+        <v>0.1963798433231253</v>
       </c>
       <c r="J72">
-        <v>-0.2964972775027482</v>
+        <v>-0.0612269021946489</v>
       </c>
       <c r="K72">
-        <v>-0.3691626414566153</v>
+        <v>-0.0791720192769166</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2929,34 +2929,34 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.2255301841616706</v>
+        <v>-0.1381636751797603</v>
       </c>
       <c r="C73">
-        <v>0.2801941061091046</v>
+        <v>0.1161894984285464</v>
       </c>
       <c r="D73">
-        <v>-0.1103469359036592</v>
+        <v>-0.1001610594922826</v>
       </c>
       <c r="E73">
-        <v>-0.5323609591430051</v>
+        <v>-0.2791931706334588</v>
       </c>
       <c r="F73">
-        <v>-0.3518064758717478</v>
+        <v>-0.1770981119035535</v>
       </c>
       <c r="G73">
-        <v>-0.3047129048186572</v>
+        <v>-0.132915065243761</v>
       </c>
       <c r="H73">
-        <v>-0.1485297522203472</v>
+        <v>-0.05877426489907365</v>
       </c>
       <c r="I73">
-        <v>0.3139439357658264</v>
+        <v>0.1784840968294165</v>
       </c>
       <c r="J73">
-        <v>-0.1828885759665113</v>
+        <v>-0.05283415508267605</v>
       </c>
       <c r="K73">
-        <v>-0.3637345193453984</v>
+        <v>-0.1175939744617521</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2964,34 +2964,34 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.1133712603486091</v>
+        <v>-0.2259562685582613</v>
       </c>
       <c r="C74">
-        <v>0.1017749875857546</v>
+        <v>0.1445244148411597</v>
       </c>
       <c r="D74">
-        <v>-0.09170273934556207</v>
+        <v>-0.1830554400339212</v>
       </c>
       <c r="E74">
-        <v>-0.290760958374259</v>
+        <v>-0.5019974426283503</v>
       </c>
       <c r="F74">
-        <v>-0.1173641631751707</v>
+        <v>-0.2094829376354362</v>
       </c>
       <c r="G74">
-        <v>-0.1432790000412973</v>
+        <v>-0.212591365212639</v>
       </c>
       <c r="H74">
-        <v>-0.06438106066971538</v>
+        <v>-0.04409866216427098</v>
       </c>
       <c r="I74">
-        <v>0.1809629147504667</v>
+        <v>0.3769148332351512</v>
       </c>
       <c r="J74">
-        <v>-0.03673388412462281</v>
+        <v>-0.1295900618347761</v>
       </c>
       <c r="K74">
-        <v>-0.06865943472009535</v>
+        <v>-0.2293596043628932</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2999,34 +2999,34 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.1517090169595393</v>
+        <v>-0.2053075053779309</v>
       </c>
       <c r="C75">
-        <v>0.3066320737985317</v>
+        <v>0.2267029297597998</v>
       </c>
       <c r="D75">
-        <v>-0.07901474719806993</v>
+        <v>-0.1199220470596253</v>
       </c>
       <c r="E75">
-        <v>-0.4855296725267814</v>
+        <v>-0.3746146530574913</v>
       </c>
       <c r="F75">
-        <v>-0.265343762769959</v>
+        <v>-0.3254112841297205</v>
       </c>
       <c r="G75">
-        <v>-0.2194935316926599</v>
+        <v>-0.1444043761153824</v>
       </c>
       <c r="H75">
-        <v>-0.08872179514469199</v>
+        <v>-0.1792911917753554</v>
       </c>
       <c r="I75">
-        <v>0.296778622400558</v>
+        <v>0.3381142031661792</v>
       </c>
       <c r="J75">
-        <v>-0.1702578843788236</v>
+        <v>-0.1003472668822606</v>
       </c>
       <c r="K75">
-        <v>-0.1018766561973509</v>
+        <v>-0.2092228289439001</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3034,34 +3034,34 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.003084936763112173</v>
+        <v>-0.267340036838309</v>
       </c>
       <c r="C76">
-        <v>0.002336486099610836</v>
+        <v>0.1578769753473349</v>
       </c>
       <c r="D76">
-        <v>-0.00204099003672182</v>
+        <v>-0.174270126998288</v>
       </c>
       <c r="E76">
-        <v>-0.005713215548913824</v>
+        <v>-0.4645798313047931</v>
       </c>
       <c r="F76">
-        <v>-0.003131969720654932</v>
+        <v>-0.1874239627211097</v>
       </c>
       <c r="G76">
-        <v>-0.004336390498111269</v>
+        <v>-0.2403514982441288</v>
       </c>
       <c r="H76">
-        <v>-0.002575705851455531</v>
+        <v>-0.1160017751799896</v>
       </c>
       <c r="I76">
-        <v>0.004340238130238005</v>
+        <v>0.4627881126964567</v>
       </c>
       <c r="J76">
-        <v>-0.0005232034337041773</v>
+        <v>-0.1151784194160385</v>
       </c>
       <c r="K76">
-        <v>-0.001160744573733961</v>
+        <v>-0.2073273398850543</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3069,34 +3069,34 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.02469140810320093</v>
+        <v>-0.02254290879869102</v>
       </c>
       <c r="C77">
-        <v>0.02162465585043541</v>
+        <v>0.02396712758085752</v>
       </c>
       <c r="D77">
-        <v>-0.01172595176981835</v>
+        <v>-0.009803322669267074</v>
       </c>
       <c r="E77">
-        <v>-0.04467109636470432</v>
+        <v>-0.04925246795982515</v>
       </c>
       <c r="F77">
-        <v>-0.02229628365549761</v>
+        <v>-0.02047698216795233</v>
       </c>
       <c r="G77">
-        <v>-0.03682587700222172</v>
+        <v>-0.02604140610268328</v>
       </c>
       <c r="H77">
-        <v>-0.02704192904728906</v>
+        <v>-0.01554626773855127</v>
       </c>
       <c r="I77">
-        <v>0.03972604089163938</v>
+        <v>0.03708598058718543</v>
       </c>
       <c r="J77">
-        <v>-0.005130164535673228</v>
+        <v>-0.01048558834602057</v>
       </c>
       <c r="K77">
-        <v>-0.0178942083883049</v>
+        <v>-0.01578170567193604</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3104,34 +3104,34 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.002473936274761569</v>
+        <v>-0.003545655290822203</v>
       </c>
       <c r="C78">
-        <v>0.001892167567938191</v>
+        <v>0.002417607965675443</v>
       </c>
       <c r="D78">
-        <v>-0.001823269220760744</v>
+        <v>-0.002002220945013319</v>
       </c>
       <c r="E78">
-        <v>-0.00561268519331391</v>
+        <v>-0.005298320763721806</v>
       </c>
       <c r="F78">
-        <v>-0.003415479554458146</v>
+        <v>-0.003285195263343677</v>
       </c>
       <c r="G78">
-        <v>-0.003178195781249819</v>
+        <v>-0.004308907683510355</v>
       </c>
       <c r="H78">
-        <v>-0.001920967464391794</v>
+        <v>-0.00323421118930851</v>
       </c>
       <c r="I78">
-        <v>0.003903549500474997</v>
+        <v>0.005256002867097775</v>
       </c>
       <c r="J78">
-        <v>-0.0005275959366104154</v>
+        <v>-0.001127915557263754</v>
       </c>
       <c r="K78">
-        <v>-0.0005613128252829769</v>
+        <v>-0.0004423587656092624</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3139,34 +3139,34 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.19130342115949</v>
+        <v>-0.2775250935671025</v>
       </c>
       <c r="C79">
-        <v>0.2602678527058878</v>
+        <v>0.2701607107109447</v>
       </c>
       <c r="D79">
-        <v>-0.01145820626045156</v>
+        <v>-0.3127799688021948</v>
       </c>
       <c r="E79">
-        <v>-0.4889909042719888</v>
+        <v>-0.3705168284053534</v>
       </c>
       <c r="F79">
-        <v>-0.343598849902414</v>
+        <v>-0.2259272052953275</v>
       </c>
       <c r="G79">
-        <v>-0.2186331814693395</v>
+        <v>-0.1664379309340814</v>
       </c>
       <c r="H79">
-        <v>-0.1291480623071641</v>
+        <v>-0.1001531619742418</v>
       </c>
       <c r="I79">
-        <v>0.5190822554035908</v>
+        <v>0.6289095251431481</v>
       </c>
       <c r="J79">
-        <v>-0.2678583142938408</v>
+        <v>-0.2215300403357686</v>
       </c>
       <c r="K79">
-        <v>-0.294877281613362</v>
+        <v>-0.2370824834090665</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3174,34 +3174,34 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.1201021071382171</v>
+        <v>-0.314159121542211</v>
       </c>
       <c r="C80">
-        <v>0.1319829542877048</v>
+        <v>0.1818030522858218</v>
       </c>
       <c r="D80">
-        <v>-0.04521826526740477</v>
+        <v>-0.1586208335051328</v>
       </c>
       <c r="E80">
-        <v>-0.2412235969965598</v>
+        <v>-0.6062581695077434</v>
       </c>
       <c r="F80">
-        <v>-0.1738261341153808</v>
+        <v>-0.4433358263339784</v>
       </c>
       <c r="G80">
-        <v>-0.1725803224743655</v>
+        <v>-0.3715211813900445</v>
       </c>
       <c r="H80">
-        <v>-0.08661001411240871</v>
+        <v>-0.1489842165509309</v>
       </c>
       <c r="I80">
-        <v>0.1706459467071157</v>
+        <v>0.3691703183491674</v>
       </c>
       <c r="J80">
-        <v>-0.03851091162479156</v>
+        <v>-0.1013572151043755</v>
       </c>
       <c r="K80">
-        <v>-0.09416437484811682</v>
+        <v>-0.3836169152929796</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3209,34 +3209,34 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.2419023001443567</v>
+        <v>-0.2600859389499506</v>
       </c>
       <c r="C81">
-        <v>0.2589664958249969</v>
+        <v>0.2266817881004476</v>
       </c>
       <c r="D81">
-        <v>-0.177776815321188</v>
+        <v>-0.1535735133211466</v>
       </c>
       <c r="E81">
-        <v>-0.7261309863686862</v>
+        <v>-0.5326805660172056</v>
       </c>
       <c r="F81">
-        <v>-0.4391796844431375</v>
+        <v>-0.247060983412423</v>
       </c>
       <c r="G81">
-        <v>-0.3370147442822149</v>
+        <v>-0.2333252028450512</v>
       </c>
       <c r="H81">
-        <v>0.2154542124886581</v>
+        <v>-0.095728776386261</v>
       </c>
       <c r="I81">
-        <v>0.3500956024367478</v>
+        <v>0.3523688071491358</v>
       </c>
       <c r="J81">
-        <v>-0.2562765903992915</v>
+        <v>-0.1408524597165995</v>
       </c>
       <c r="K81">
-        <v>-0.4293757999361414</v>
+        <v>-0.2210678555858628</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3244,34 +3244,34 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.002452099592548999</v>
+        <v>-0.1420411332994987</v>
       </c>
       <c r="C82">
-        <v>0.002302237694374846</v>
+        <v>0.09994717055624504</v>
       </c>
       <c r="D82">
-        <v>-0.0009715807964675405</v>
+        <v>-0.1009884617915824</v>
       </c>
       <c r="E82">
-        <v>-0.005245577744911868</v>
+        <v>-0.2946443670093328</v>
       </c>
       <c r="F82">
-        <v>-0.002545230731414316</v>
+        <v>-0.1298970255456029</v>
       </c>
       <c r="G82">
-        <v>-0.003695964740336101</v>
+        <v>-0.1390293793535549</v>
       </c>
       <c r="H82">
-        <v>-0.002303953350300392</v>
+        <v>-0.07357049105280256</v>
       </c>
       <c r="I82">
-        <v>0.004312179200951841</v>
+        <v>0.2171701535643458</v>
       </c>
       <c r="J82">
-        <v>-0.0005272840810040001</v>
+        <v>-0.05259632033835959</v>
       </c>
       <c r="K82">
-        <v>-0.000959709581767182</v>
+        <v>-0.1127558686724059</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3279,34 +3279,34 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.1270467877434869</v>
+        <v>-0.002829675698375499</v>
       </c>
       <c r="C83">
-        <v>0.2478031446906739</v>
+        <v>0.00169777357362626</v>
       </c>
       <c r="D83">
-        <v>-0.2203726449243947</v>
+        <v>-0.002073109679091851</v>
       </c>
       <c r="E83">
-        <v>-0.5640452735174509</v>
+        <v>-0.005161215854091897</v>
       </c>
       <c r="F83">
-        <v>-0.2728839116131086</v>
+        <v>-0.003706623531792315</v>
       </c>
       <c r="G83">
-        <v>-0.1654120070757183</v>
+        <v>-0.003509422342343191</v>
       </c>
       <c r="H83">
-        <v>-0.0396296622715949</v>
+        <v>-0.002218318530574569</v>
       </c>
       <c r="I83">
-        <v>0.5070274913429651</v>
+        <v>0.004156545938495542</v>
       </c>
       <c r="J83">
-        <v>-0.4667972860663694</v>
+        <v>-0.001115718096175695</v>
       </c>
       <c r="K83">
-        <v>-0.4471498666716009</v>
+        <v>-0.001431091987736707</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3314,34 +3314,34 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.2577180209261526</v>
+        <v>-0.002444012632876039</v>
       </c>
       <c r="C84">
-        <v>0.2284756054222973</v>
+        <v>0.002623881007568057</v>
       </c>
       <c r="D84">
-        <v>-0.2699127637990444</v>
+        <v>-0.001585753875962468</v>
       </c>
       <c r="E84">
-        <v>-0.7775692734691051</v>
+        <v>-0.004412640870515676</v>
       </c>
       <c r="F84">
-        <v>-0.45533481375577</v>
+        <v>-0.002125087006910173</v>
       </c>
       <c r="G84">
-        <v>-0.2522538092281651</v>
+        <v>-0.003870267275496803</v>
       </c>
       <c r="H84">
-        <v>0.1012798204694591</v>
+        <v>-0.001522089863835686</v>
       </c>
       <c r="I84">
-        <v>0.508994022330738</v>
+        <v>0.004401000415736875</v>
       </c>
       <c r="J84">
-        <v>-0.396226331603653</v>
+        <v>-0.001127262033837512</v>
       </c>
       <c r="K84">
-        <v>-0.4335146898544656</v>
+        <v>-0.001560823516003445</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3349,34 +3349,34 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.15348085086407</v>
+        <v>-0.2542833659348117</v>
       </c>
       <c r="C85">
-        <v>0.3413099244310029</v>
+        <v>0.2195143897542341</v>
       </c>
       <c r="D85">
-        <v>-0.3629972957320418</v>
+        <v>-0.1347727308997766</v>
       </c>
       <c r="E85">
-        <v>-0.6403172860066549</v>
+        <v>-0.4566417979980246</v>
       </c>
       <c r="F85">
-        <v>-0.3391716312533403</v>
+        <v>-0.1793763156672711</v>
       </c>
       <c r="G85">
-        <v>-0.1488266622136127</v>
+        <v>-0.2380910438171062</v>
       </c>
       <c r="H85">
-        <v>-0.07743563583210442</v>
+        <v>-0.191111822074714</v>
       </c>
       <c r="I85">
-        <v>0.6316364564592141</v>
+        <v>0.433905057259608</v>
       </c>
       <c r="J85">
-        <v>-0.6481143589101757</v>
+        <v>-0.1207822105680768</v>
       </c>
       <c r="K85">
-        <v>-0.2886430721629082</v>
+        <v>-0.2582211852233128</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3384,34 +3384,34 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.1220537483798926</v>
+        <v>-0.3646496407507205</v>
       </c>
       <c r="C86">
-        <v>0.1039055546552501</v>
+        <v>0.4165048705418075</v>
       </c>
       <c r="D86">
-        <v>-0.08052348730490909</v>
+        <v>-0.3835900589654405</v>
       </c>
       <c r="E86">
-        <v>-0.259858583081488</v>
+        <v>-0.5666463972455216</v>
       </c>
       <c r="F86">
-        <v>-0.1372517660088264</v>
+        <v>-0.3181840116430482</v>
       </c>
       <c r="G86">
-        <v>-0.1626230639153756</v>
+        <v>-0.227903636854591</v>
       </c>
       <c r="H86">
-        <v>-0.1038151125377107</v>
+        <v>-0.1696638937553952</v>
       </c>
       <c r="I86">
-        <v>0.2222451710473975</v>
+        <v>0.5680525463591934</v>
       </c>
       <c r="J86">
-        <v>-0.05060555802053727</v>
+        <v>-0.2047075733573618</v>
       </c>
       <c r="K86">
-        <v>-0.07644701051012988</v>
+        <v>-0.3796193092202097</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3419,34 +3419,34 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.115939955209005</v>
+        <v>-0.1306016328454818</v>
       </c>
       <c r="C87">
-        <v>0.09611666901114292</v>
+        <v>0.1371605176758564</v>
       </c>
       <c r="D87">
-        <v>-0.0996298219471191</v>
+        <v>-0.09110713910109726</v>
       </c>
       <c r="E87">
-        <v>-0.2526865042378055</v>
+        <v>-0.2521239582927937</v>
       </c>
       <c r="F87">
-        <v>-0.1470433134082857</v>
+        <v>-0.08707022503098975</v>
       </c>
       <c r="G87">
-        <v>-0.1544571991598894</v>
+        <v>-0.1658365424839252</v>
       </c>
       <c r="H87">
-        <v>-0.0584354357543701</v>
+        <v>-0.04542094725853624</v>
       </c>
       <c r="I87">
-        <v>0.2046334682475109</v>
+        <v>0.2143669083462294</v>
       </c>
       <c r="J87">
-        <v>-0.04179105667311671</v>
+        <v>-0.06219601023842997</v>
       </c>
       <c r="K87">
-        <v>-0.09503628726918213</v>
+        <v>-0.08473777005676809</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3454,34 +3454,34 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.02944806267736785</v>
+        <v>-0.03023628217008417</v>
       </c>
       <c r="C88">
-        <v>0.02112986986326159</v>
+        <v>0.02558000185843705</v>
       </c>
       <c r="D88">
-        <v>-0.02187834595535909</v>
+        <v>-0.01729039633352684</v>
       </c>
       <c r="E88">
-        <v>-0.05226612642430385</v>
+        <v>-0.04892898248088881</v>
       </c>
       <c r="F88">
-        <v>-0.03041109144636343</v>
+        <v>-0.02217988965246404</v>
       </c>
       <c r="G88">
-        <v>-0.03918979632338468</v>
+        <v>-0.03437611354915923</v>
       </c>
       <c r="H88">
-        <v>-0.02060836572290112</v>
+        <v>-0.02444231755222612</v>
       </c>
       <c r="I88">
-        <v>0.0395916281558742</v>
+        <v>0.04784110893071533</v>
       </c>
       <c r="J88">
-        <v>-0.004783658091616355</v>
+        <v>-0.01021907805692607</v>
       </c>
       <c r="K88">
-        <v>-0.0128038683313576</v>
+        <v>-0.01311530944371254</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3489,34 +3489,34 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.1480357569760852</v>
+        <v>-0.2515515054008707</v>
       </c>
       <c r="C89">
-        <v>0.2802021361540267</v>
+        <v>0.1747913952352808</v>
       </c>
       <c r="D89">
-        <v>-0.1839688428268478</v>
+        <v>-0.1368177064346114</v>
       </c>
       <c r="E89">
-        <v>-0.64661005800324</v>
+        <v>-0.5664997712053836</v>
       </c>
       <c r="F89">
-        <v>-0.2975396683196054</v>
+        <v>-0.2291971186766793</v>
       </c>
       <c r="G89">
-        <v>-0.2328655334490421</v>
+        <v>-0.2337173283122249</v>
       </c>
       <c r="H89">
-        <v>-0.1210736332331371</v>
+        <v>0.08267705401692511</v>
       </c>
       <c r="I89">
-        <v>0.4374444371954138</v>
+        <v>0.4579216092042945</v>
       </c>
       <c r="J89">
-        <v>-0.4046973732947336</v>
+        <v>-0.2002046853284579</v>
       </c>
       <c r="K89">
-        <v>-0.3309102600244955</v>
+        <v>-0.3424227091004365</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3524,34 +3524,34 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.2276366610650638</v>
+        <v>-0.3447048036171818</v>
       </c>
       <c r="C90">
-        <v>0.2249772512542551</v>
+        <v>0.3622598487570194</v>
       </c>
       <c r="D90">
-        <v>-0.1969392973910821</v>
+        <v>-0.4253492913045954</v>
       </c>
       <c r="E90">
-        <v>-0.520345466494753</v>
+        <v>-0.6006672307787837</v>
       </c>
       <c r="F90">
-        <v>-0.3063496149424797</v>
+        <v>-0.1567289337011468</v>
       </c>
       <c r="G90">
-        <v>-0.2861144595507961</v>
+        <v>-0.2059508591114383</v>
       </c>
       <c r="H90">
-        <v>-0.1468858720733471</v>
+        <v>-0.1454086648522358</v>
       </c>
       <c r="I90">
-        <v>0.4392073435403649</v>
+        <v>0.5467872587558387</v>
       </c>
       <c r="J90">
-        <v>-0.1740106345021849</v>
+        <v>-0.2302906243212017</v>
       </c>
       <c r="K90">
-        <v>-0.1970060337115313</v>
+        <v>-0.5195751540152143</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3559,34 +3559,34 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.2070854251211788</v>
+        <v>-0.1326890588039582</v>
       </c>
       <c r="C91">
-        <v>0.07685007837044797</v>
+        <v>0.1180397725610254</v>
       </c>
       <c r="D91">
-        <v>-0.1210481535702068</v>
+        <v>-0.118547007350708</v>
       </c>
       <c r="E91">
-        <v>-0.4829488458678543</v>
+        <v>-0.255849241050958</v>
       </c>
       <c r="F91">
-        <v>-0.2540070999924559</v>
+        <v>-0.1380541613580905</v>
       </c>
       <c r="G91">
-        <v>-0.3011711512234921</v>
+        <v>-0.163286094140616</v>
       </c>
       <c r="H91">
-        <v>-0.08478346325043681</v>
+        <v>-0.07132913669431744</v>
       </c>
       <c r="I91">
-        <v>0.3616021678276766</v>
+        <v>0.1802888171560519</v>
       </c>
       <c r="J91">
-        <v>-0.08576196999302259</v>
+        <v>-0.06299797467475045</v>
       </c>
       <c r="K91">
-        <v>-0.1279118892322899</v>
+        <v>-0.08440153282658572</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3594,34 +3594,34 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.2383239071755562</v>
+        <v>-0.002367744062713847</v>
       </c>
       <c r="C92">
-        <v>0.2611079009306161</v>
+        <v>0.00227717183884967</v>
       </c>
       <c r="D92">
-        <v>-0.1094397821763842</v>
+        <v>-0.001767839182739282</v>
       </c>
       <c r="E92">
-        <v>-0.545432928012347</v>
+        <v>-0.004070350462563078</v>
       </c>
       <c r="F92">
-        <v>-0.3016064456009474</v>
+        <v>-0.003491846099067531</v>
       </c>
       <c r="G92">
-        <v>-0.2237069008775154</v>
+        <v>-0.002648507270592047</v>
       </c>
       <c r="H92">
-        <v>0.05210592205312845</v>
+        <v>-0.002428710226975004</v>
       </c>
       <c r="I92">
-        <v>0.3332912372891151</v>
+        <v>0.004481265456026527</v>
       </c>
       <c r="J92">
-        <v>-0.1192123003605436</v>
+        <v>-0.001123993425937673</v>
       </c>
       <c r="K92">
-        <v>-0.3754176509769581</v>
+        <v>-0.000319893556673625</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3629,34 +3629,34 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.1214056994951475</v>
+        <v>-0.2744899523906965</v>
       </c>
       <c r="C93">
-        <v>0.09421022617125489</v>
+        <v>0.1103817620631499</v>
       </c>
       <c r="D93">
-        <v>-0.1244334845424165</v>
+        <v>-0.1595431610221234</v>
       </c>
       <c r="E93">
-        <v>-0.2824678755904677</v>
+        <v>-0.490107376826878</v>
       </c>
       <c r="F93">
-        <v>-0.1348821959150303</v>
+        <v>-0.2558420464106952</v>
       </c>
       <c r="G93">
-        <v>-0.1543498178693539</v>
+        <v>-0.2911027821418907</v>
       </c>
       <c r="H93">
-        <v>-0.06624802725626311</v>
+        <v>0.07663233396473641</v>
       </c>
       <c r="I93">
-        <v>0.1870969691561677</v>
+        <v>0.4877427630272321</v>
       </c>
       <c r="J93">
-        <v>-0.0364245711105322</v>
+        <v>-0.1570989479860864</v>
       </c>
       <c r="K93">
-        <v>-0.0811620674222049</v>
+        <v>-0.19902726165454</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3664,34 +3664,34 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.192233834609228</v>
+        <v>-0.1153226676707582</v>
       </c>
       <c r="C94">
-        <v>0.1692423961350205</v>
+        <v>0.1755611409225284</v>
       </c>
       <c r="D94">
-        <v>-0.1737457577933997</v>
+        <v>-0.07190486971455633</v>
       </c>
       <c r="E94">
-        <v>-0.509019150328119</v>
+        <v>-0.2607312848547086</v>
       </c>
       <c r="F94">
-        <v>-0.321096992689851</v>
+        <v>-0.1201684991575812</v>
       </c>
       <c r="G94">
-        <v>-0.2093375777459567</v>
+        <v>-0.1048762745949317</v>
       </c>
       <c r="H94">
-        <v>-0.04777685046177559</v>
+        <v>-0.06641357454947794</v>
       </c>
       <c r="I94">
-        <v>0.3072923117203509</v>
+        <v>0.160597024772564</v>
       </c>
       <c r="J94">
-        <v>-0.1092242862760773</v>
+        <v>-0.06354466927395427</v>
       </c>
       <c r="K94">
-        <v>-0.1862493584774868</v>
+        <v>-0.07872319690758511</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3699,34 +3699,34 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.1427737613805474</v>
+        <v>-0.3097132492875457</v>
       </c>
       <c r="C95">
-        <v>0.1379484175191338</v>
+        <v>0.2022065407833868</v>
       </c>
       <c r="D95">
-        <v>-0.04961498580873826</v>
+        <v>-0.2649158261427981</v>
       </c>
       <c r="E95">
-        <v>-0.2825804816067777</v>
+        <v>-0.4939655466256273</v>
       </c>
       <c r="F95">
-        <v>-0.1602421228695126</v>
+        <v>-0.297793820741228</v>
       </c>
       <c r="G95">
-        <v>-0.1731735504299179</v>
+        <v>-0.3775043424571048</v>
       </c>
       <c r="H95">
-        <v>-0.08939658546215168</v>
+        <v>0.07227197027479117</v>
       </c>
       <c r="I95">
-        <v>0.1854107146522193</v>
+        <v>0.4208967439719909</v>
       </c>
       <c r="J95">
-        <v>-0.02973923566769649</v>
+        <v>-0.1428814258578236</v>
       </c>
       <c r="K95">
-        <v>-0.1105589950410057</v>
+        <v>-0.2510076708302073</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3734,34 +3734,34 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.01912754958461412</v>
+        <v>-0.0279300501370827</v>
       </c>
       <c r="C96">
-        <v>0.01088872653702929</v>
+        <v>0.01355891574000804</v>
       </c>
       <c r="D96">
-        <v>-0.02162768014957779</v>
+        <v>-0.01888571234833182</v>
       </c>
       <c r="E96">
-        <v>-0.04352508967700257</v>
+        <v>-0.04603358925086971</v>
       </c>
       <c r="F96">
-        <v>-0.02127485506178211</v>
+        <v>-0.03208898712499449</v>
       </c>
       <c r="G96">
-        <v>-0.02739341743837542</v>
+        <v>-0.03342971988674076</v>
       </c>
       <c r="H96">
-        <v>-0.01732233218209149</v>
+        <v>-0.02247454088880642</v>
       </c>
       <c r="I96">
-        <v>0.0373215869558412</v>
+        <v>0.04567056471745422</v>
       </c>
       <c r="J96">
-        <v>-0.005193957124877727</v>
+        <v>-0.01038651309250698</v>
       </c>
       <c r="K96">
-        <v>-0.01690598508778311</v>
+        <v>-0.006189501267514497</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3769,34 +3769,34 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.2026619914736539</v>
+        <v>-0.1314774864169256</v>
       </c>
       <c r="C97">
-        <v>0.2737421606770472</v>
+        <v>0.1351995164360873</v>
       </c>
       <c r="D97">
-        <v>-0.1306400789888348</v>
+        <v>-0.08335052563978185</v>
       </c>
       <c r="E97">
-        <v>-0.4482647663827706</v>
+        <v>-0.2552285635999408</v>
       </c>
       <c r="F97">
-        <v>-0.2684298923217945</v>
+        <v>-0.138400161043874</v>
       </c>
       <c r="G97">
-        <v>-0.2848830186217672</v>
+        <v>-0.1259408223846076</v>
       </c>
       <c r="H97">
-        <v>-0.09920525198886271</v>
+        <v>-0.07297326957201959</v>
       </c>
       <c r="I97">
-        <v>0.2780999161302798</v>
+        <v>0.2162776514832479</v>
       </c>
       <c r="J97">
-        <v>-0.09984093492699629</v>
+        <v>-0.04089909671425423</v>
       </c>
       <c r="K97">
-        <v>-0.2805400047482599</v>
+        <v>-0.081020437825602</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3804,34 +3804,34 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.1496285179863391</v>
+        <v>-0.002693009785081202</v>
       </c>
       <c r="C98">
-        <v>0.3424779219696238</v>
+        <v>0.00217583966904968</v>
       </c>
       <c r="D98">
-        <v>-0.0676350481201685</v>
+        <v>-0.001550751750850956</v>
       </c>
       <c r="E98">
-        <v>-0.5711722644198887</v>
+        <v>-0.004907957097507539</v>
       </c>
       <c r="F98">
-        <v>-0.2902380876227514</v>
+        <v>-0.00272108157141284</v>
       </c>
       <c r="G98">
-        <v>-0.313584675884626</v>
+        <v>-0.004051206855391972</v>
       </c>
       <c r="H98">
-        <v>-0.2110360313401557</v>
+        <v>-0.002659955593794345</v>
       </c>
       <c r="I98">
-        <v>0.4145354260992374</v>
+        <v>0.003880624540699794</v>
       </c>
       <c r="J98">
-        <v>-0.39775416797207</v>
+        <v>-0.001123332226180033</v>
       </c>
       <c r="K98">
-        <v>-0.319615806293995</v>
+        <v>-0.001673140360243898</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3839,34 +3839,34 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.129042413178809</v>
+        <v>-0.1840650644432149</v>
       </c>
       <c r="C99">
-        <v>0.2027569549763118</v>
+        <v>0.1548398695954104</v>
       </c>
       <c r="D99">
-        <v>-0.2129865367012151</v>
+        <v>-0.174407532623591</v>
       </c>
       <c r="E99">
-        <v>-0.6152486904264922</v>
+        <v>-0.4639850545710019</v>
       </c>
       <c r="F99">
-        <v>-0.3204038569540861</v>
+        <v>-0.1864133990527218</v>
       </c>
       <c r="G99">
-        <v>-0.2020659374289152</v>
+        <v>-0.1955825719296457</v>
       </c>
       <c r="H99">
-        <v>0.01189023982655618</v>
+        <v>-0.07344471291618854</v>
       </c>
       <c r="I99">
-        <v>0.5151039473390604</v>
+        <v>0.2559368750839586</v>
       </c>
       <c r="J99">
-        <v>-0.5415897273579193</v>
+        <v>-0.1269374502913231</v>
       </c>
       <c r="K99">
-        <v>-0.4373181763206975</v>
+        <v>-0.2840748505113537</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3874,34 +3874,34 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.2139440064630084</v>
+        <v>-0.2997933897919647</v>
       </c>
       <c r="C100">
-        <v>0.2679642010600037</v>
+        <v>0.2548663637081779</v>
       </c>
       <c r="D100">
-        <v>-0.2029302046889591</v>
+        <v>-0.386576375894808</v>
       </c>
       <c r="E100">
-        <v>-0.6127247711846184</v>
+        <v>-0.704755231345774</v>
       </c>
       <c r="F100">
-        <v>-0.3685016175402774</v>
+        <v>-0.2944134653911477</v>
       </c>
       <c r="G100">
-        <v>-0.2167890358765878</v>
+        <v>-0.1532488469404803</v>
       </c>
       <c r="H100">
-        <v>-0.0205108236151673</v>
+        <v>0.008653008858365657</v>
       </c>
       <c r="I100">
-        <v>0.4349852285349603</v>
+        <v>0.4650266275535338</v>
       </c>
       <c r="J100">
-        <v>-0.1882338446981743</v>
+        <v>-0.1376662405032892</v>
       </c>
       <c r="K100">
-        <v>-0.3394517025992608</v>
+        <v>-0.2648901987063061</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3909,34 +3909,34 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.1642000078712506</v>
+        <v>-0.1358023951468595</v>
       </c>
       <c r="C101">
-        <v>0.1353625941841163</v>
+        <v>0.1393766716934141</v>
       </c>
       <c r="D101">
-        <v>-0.1155999745932434</v>
+        <v>-0.0414228454975208</v>
       </c>
       <c r="E101">
-        <v>-0.4282209835647541</v>
+        <v>-0.2203977515670272</v>
       </c>
       <c r="F101">
-        <v>-0.2666686129134294</v>
+        <v>-0.1565710349282394</v>
       </c>
       <c r="G101">
-        <v>-0.23026695250296</v>
+        <v>-0.1502449343882225</v>
       </c>
       <c r="H101">
-        <v>-0.1183739383171667</v>
+        <v>-0.07980013624298354</v>
       </c>
       <c r="I101">
-        <v>0.3493823228200952</v>
+        <v>0.228959218024311</v>
       </c>
       <c r="J101">
-        <v>-0.1573955095063312</v>
+        <v>-0.05279123607451193</v>
       </c>
       <c r="K101">
-        <v>-0.233277366617304</v>
+        <v>-0.1334037658939718</v>
       </c>
     </row>
   </sheetData>
